--- a/data/hotels_by_city/Dallas/Dallas_shard_511.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_511.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="641">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1811 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r549734990-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>55902</t>
+  </si>
+  <si>
+    <t>1200854</t>
+  </si>
+  <si>
+    <t>549734990</t>
+  </si>
+  <si>
+    <t>12/28/2017</t>
+  </si>
+  <si>
+    <t>Everything excellent except for breakfast.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front desk was very welcoming.  Hotel was clean.  There were people who lived at the hotel and let there dog tin loose, also several junk cars sitting outside that looked like they had been there for a while.  We are typically very pleased with La quinta breakfast but it was horrible not hot food at 8 am waited almost 30 mins for eggs and sausage them sausage was cold.  </t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r545191803-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>545191803</t>
+  </si>
+  <si>
+    <t>12/04/2017</t>
+  </si>
+  <si>
+    <t>Great stay !!!!!</t>
+  </si>
+  <si>
+    <t>this hotel was one of the best we have stayed in last 6 months my kids enjoyed over there they loved there Texas shape waffle maker we don't stay too far from glen rose but my kids are great dinosaur lovers we take them over there offend we will stay at this place again for sure great staff, nice foodMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Harshal P, Manager at La Quinta Inn &amp; Suites Glen Rose, responded to this reviewResponded April 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2018</t>
+  </si>
+  <si>
+    <t>this hotel was one of the best we have stayed in last 6 months my kids enjoyed over there they loved there Texas shape waffle maker we don't stay too far from glen rose but my kids are great dinosaur lovers we take them over there offend we will stay at this place again for sure great staff, nice foodMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r543193591-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>543193591</t>
+  </si>
+  <si>
+    <t>11/25/2017</t>
+  </si>
+  <si>
+    <t>Great for our family with 2 kids</t>
+  </si>
+  <si>
+    <t>We stayed here 1 night after visiting Dinosaur Valley State Park and Fossil Ridge Wildlife Park. Everything seemed clean and updated to me. We got a fair price on the king suite with the pullout sofa bed. We needed sheets for the pullout sofa bed and the front desk gave them to us right away with some extra towels too. The kids loved the pool and hot tub and both appeared clean to me. The breakfast was fine and everyone found something that they wanted to eat. The internet speed was acceptable and I could stream Netflix to my iPad. We had dinner at Azteca Mexican restaurant across the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here 1 night after visiting Dinosaur Valley State Park and Fossil Ridge Wildlife Park. Everything seemed clean and updated to me. We got a fair price on the king suite with the pullout sofa bed. We needed sheets for the pullout sofa bed and the front desk gave them to us right away with some extra towels too. The kids loved the pool and hot tub and both appeared clean to me. The breakfast was fine and everyone found something that they wanted to eat. The internet speed was acceptable and I could stream Netflix to my iPad. We had dinner at Azteca Mexican restaurant across the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r539719424-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>539719424</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Can't wait to go back</t>
+  </si>
+  <si>
+    <t>I'm excited to get to go back the staff are wonderful friendly and very helpful. The breakfast was great and the rooms are big and clean. Thank you for a wonderful experience! I look forward to the next time I get to stay!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I'm excited to get to go back the staff are wonderful friendly and very helpful. The breakfast was great and the rooms are big and clean. Thank you for a wonderful experience! I look forward to the next time I get to stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r508140124-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>508140124</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>Time for a change.</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel several times over the last three years. The staff at this location are great. Very friendly, helpful and efficient. They are the only reason I booked at this hotel again, after my previous visit I had decided to use a different hotel due to the conditions at this location. The hotel has deteriorated quite a bit. The carpeting in the public areas is disgusting. Our rooms have always been clean as far the bathrooms, dusting and so on. What is not clean is the stained carpeting, furniture and linens. I do not believe this is a "housekeeping" issue. The hotel is in great need of some TLC.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Harshal P, Manager at La Quinta Inn &amp; Suites Glen Rose, responded to this reviewResponded August 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2017</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel several times over the last three years. The staff at this location are great. Very friendly, helpful and efficient. They are the only reason I booked at this hotel again, after my previous visit I had decided to use a different hotel due to the conditions at this location. The hotel has deteriorated quite a bit. The carpeting in the public areas is disgusting. Our rooms have always been clean as far the bathrooms, dusting and so on. What is not clean is the stained carpeting, furniture and linens. I do not believe this is a "housekeeping" issue. The hotel is in great need of some TLC.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r484907212-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>484907212</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>This hotel was inexpensive and fantastic!  I highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>The room was clean, well-maintained and up-to-date.  The breakfast was more than adequate.  I can't stress enough how much we enjoyed this hotel.  The other hotel we stayed at on our trip, for the same price, was far from this quality.  Had we known where we were going, we could have walked to the historic town square that's basically right across the street and down a few blocks  Dinosaur Valley State park is an easy drive and a great place to visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Harshal P, Manager at La Quinta Inn &amp; Suites Glen Rose, responded to this reviewResponded May 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2017</t>
+  </si>
+  <si>
+    <t>The room was clean, well-maintained and up-to-date.  The breakfast was more than adequate.  I can't stress enough how much we enjoyed this hotel.  The other hotel we stayed at on our trip, for the same price, was far from this quality.  Had we known where we were going, we could have walked to the historic town square that's basically right across the street and down a few blocks  Dinosaur Valley State park is an easy drive and a great place to visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r484743621-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>484743621</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Very clean and accessible to local attractions</t>
+  </si>
+  <si>
+    <t>This hotel is newer and very well managed.  It is within a 5 mile radius to all the most popular attractions.  The property is quiet and clean with a very accommodating staff.  It has an indoor pool and spa, workout room, business center and breakfast center.  The breakfast is not just the awful international breakfast either.  It is actually real Texas style eats.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>This hotel is newer and very well managed.  It is within a 5 mile radius to all the most popular attractions.  The property is quiet and clean with a very accommodating staff.  It has an indoor pool and spa, workout room, business center and breakfast center.  The breakfast is not just the awful international breakfast either.  It is actually real Texas style eats.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r478042934-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>478042934</t>
+  </si>
+  <si>
+    <t>04/22/2017</t>
+  </si>
+  <si>
+    <t>Comfortable Visit</t>
+  </si>
+  <si>
+    <t>Recently stayed for two nights on our first family trip to Glen Rose. Friendly staff (especially the morning shift), comfortable room, nice facility, and great breakfast. Two downsides; the indoor pool is a unique feature here, however both it and the hot tub would benefit from standard maintenance and cleaning. Also the WiFi was barely serviceable from the room. Otherwise it meets or exceeds expectations for La Quinta properties. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Recently stayed for two nights on our first family trip to Glen Rose. Friendly staff (especially the morning shift), comfortable room, nice facility, and great breakfast. Two downsides; the indoor pool is a unique feature here, however both it and the hot tub would benefit from standard maintenance and cleaning. Also the WiFi was barely serviceable from the room. Otherwise it meets or exceeds expectations for La Quinta properties. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r474386385-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>474386385</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Ehhh</t>
+  </si>
+  <si>
+    <t>We mainly stayed here (as opposed to other hotels in area) so our kids could use indoor pool, and it seemed dirty.  A little green and cloudy.  Breakfast was terrible.  Shower head missing.  Everything else was just okay.  MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, LQ Customer Care  at La Quinta Inn &amp; Suites Glen Rose, responded to this reviewResponded April 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2017</t>
+  </si>
+  <si>
+    <t>We mainly stayed here (as opposed to other hotels in area) so our kids could use indoor pool, and it seemed dirty.  A little green and cloudy.  Breakfast was terrible.  Shower head missing.  Everything else was just okay.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r473465888-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>473465888</t>
+  </si>
+  <si>
+    <t>04/07/2017</t>
+  </si>
+  <si>
+    <t>Did not stay. Don't recommend.</t>
+  </si>
+  <si>
+    <t>We called this property to make reservations a couple days before our visit and reserved a first floor room. The person taking the reservation was very cordial and said she would take care of it.  Arrived about 2:30 the day of the reservation to meet an unfriendly clerk with little or no hospitality skills. She told me they had us in a second floor. I told her about my request for a first floor room; she said she'd need to check with a manager; she came back in a few minutes and said nothing could be done. Cancelled reservation and left for another property in town. Enjoyed our stay in Glen Rose and look forward to our next visit, but will not stay at this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, LQ Customer Care at La Quinta Inn &amp; Suites Glen Rose, responded to this reviewResponded April 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2017</t>
+  </si>
+  <si>
+    <t>We called this property to make reservations a couple days before our visit and reserved a first floor room. The person taking the reservation was very cordial and said she would take care of it.  Arrived about 2:30 the day of the reservation to meet an unfriendly clerk with little or no hospitality skills. She told me they had us in a second floor. I told her about my request for a first floor room; she said she'd need to check with a manager; she came back in a few minutes and said nothing could be done. Cancelled reservation and left for another property in town. Enjoyed our stay in Glen Rose and look forward to our next visit, but will not stay at this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r469345828-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>469345828</t>
+  </si>
+  <si>
+    <t>03/22/2017</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights for wedding,Just under 2 hours from Dallas Forth Worth airport with traffic,Staff were very helpful throughout the stay with lovely cookies at the reception,rooms were very big and comfortable and shower was excellent,the free breakfast in the morning was nice touch,pool was a wierd colour but jacuzzi was good.Town is nice quiet place with some nice attractions and chachi's Mexican restaurant was fantastic,Parking was excellent ,had a very nice stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights for wedding,Just under 2 hours from Dallas Forth Worth airport with traffic,Staff were very helpful throughout the stay with lovely cookies at the reception,rooms were very big and comfortable and shower was excellent,the free breakfast in the morning was nice touch,pool was a wierd colour but jacuzzi was good.Town is nice quiet place with some nice attractions and chachi's Mexican restaurant was fantastic,Parking was excellent ,had a very nice stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r466411311-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>466411311</t>
+  </si>
+  <si>
+    <t>03/11/2017</t>
+  </si>
+  <si>
+    <t>Friendly staff, paper thin walls</t>
+  </si>
+  <si>
+    <t>More of a 2.5 star visit.  The staff was friendly and accommodating, the rooms were for the most part clean (we only stayed one night), and the breakfast was basic, but good.  Good proximity to town center, Fossil Rim, and Dinosaur Valley.The cons, and probably why I wouldn't stay here again:1. Super thin walls.  Our neighbors checked in at 11 pm and I could hear them as if they were in my room.  Every little thing.  I could even hear the dialogue from the tv show they were watching until I finally caved and called the front desk at 1 am.  They were very kind and walked over to the room to ask them to turn it down.  After then it was only background noise until about 2:30 am.  But again, I could hear all the doors slam shut in the morning as people made their way to breakfast/ check-out, etc.2. The stopper was broken in our bath tub.  No big deal, except I was greeted with a tub filled with now cold water (with some hair floating in it).MoreShow less</t>
+  </si>
+  <si>
+    <t>More of a 2.5 star visit.  The staff was friendly and accommodating, the rooms were for the most part clean (we only stayed one night), and the breakfast was basic, but good.  Good proximity to town center, Fossil Rim, and Dinosaur Valley.The cons, and probably why I wouldn't stay here again:1. Super thin walls.  Our neighbors checked in at 11 pm and I could hear them as if they were in my room.  Every little thing.  I could even hear the dialogue from the tv show they were watching until I finally caved and called the front desk at 1 am.  They were very kind and walked over to the room to ask them to turn it down.  After then it was only background noise until about 2:30 am.  But again, I could hear all the doors slam shut in the morning as people made their way to breakfast/ check-out, etc.2. The stopper was broken in our bath tub.  No big deal, except I was greeted with a tub filled with now cold water (with some hair floating in it).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r458968141-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>458968141</t>
+  </si>
+  <si>
+    <t>02/12/2017</t>
+  </si>
+  <si>
+    <t>Convenient location, pretty good</t>
+  </si>
+  <si>
+    <t>We decided to go to Glen Rose last minute when the weather looked to be good for the weekend. We went to the site where you say how much you're willing to pay, and we got a good deal for this hotel. There's a lot going for this LaQuinta. It is conveniently located to the usual attractions. The rooms were nicely decorated, especially for a hotel of this category. The bathrooms had dark tile and the entry was wood. I appreciated the fridge and the microwave in the room. Although we could hear people above us, we didn't hear much from the hallway, and we were directly across from the elevator. My daughter loved the pool, and it was nice to have an indoor swim in February.I'll give the beds a push. I thought they were highly uncomfortable, but my husband thought they were comfortable. The downside was breakfast, which I think was below par. Breakfast was served from 6:30-9:30. We were there from 8:15 to 8:45, and for the entirety of that time there was no coffee or butter. No coffee? Guests were generally polite about it, but several were clearly annoyed. If we got another deal on the hotel, we would happily stay again. But we would bring our own breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>We decided to go to Glen Rose last minute when the weather looked to be good for the weekend. We went to the site where you say how much you're willing to pay, and we got a good deal for this hotel. There's a lot going for this LaQuinta. It is conveniently located to the usual attractions. The rooms were nicely decorated, especially for a hotel of this category. The bathrooms had dark tile and the entry was wood. I appreciated the fridge and the microwave in the room. Although we could hear people above us, we didn't hear much from the hallway, and we were directly across from the elevator. My daughter loved the pool, and it was nice to have an indoor swim in February.I'll give the beds a push. I thought they were highly uncomfortable, but my husband thought they were comfortable. The downside was breakfast, which I think was below par. Breakfast was served from 6:30-9:30. We were there from 8:15 to 8:45, and for the entirety of that time there was no coffee or butter. No coffee? Guests were generally polite about it, but several were clearly annoyed. If we got another deal on the hotel, we would happily stay again. But we would bring our own breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r454800283-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>454800283</t>
+  </si>
+  <si>
+    <t>01/25/2017</t>
+  </si>
+  <si>
+    <t>Family vidit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very clean and modern hotel with reasonable prices.  This hotel has an indoor pool.  The complimentary breakfast was great:  sausage, gravy, biscuits, fresh fruit, eggs, muffins, toast, cereal, juices, coffee, tea, hot cocoa, yogurt, waffles, etc.  The location is very convenient to the major attractions nearby.  Staff were friendly and accommodating.  We would definitely recommend the La Quinta Inn and Suites in Glen Rose, Texas. </t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r450547413-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>450547413</t>
+  </si>
+  <si>
+    <t>01/08/2017</t>
+  </si>
+  <si>
+    <t>Nice Place and Nice People</t>
+  </si>
+  <si>
+    <t>Every person working at this La Quinta went out of his/her way to be pleasant and helpful.  The biscuits served with the free breakfast were much better than the biscuits at Big Cup Eatery.  The king size bed in the room was more comfortable than the fold-out sofa bed, but that is pretty much true anywhere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r381515133-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>381515133</t>
+  </si>
+  <si>
+    <t>06/10/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very disappointed </t>
+  </si>
+  <si>
+    <t>This has to be the worst hotel, for the price.  Let's start either the shower, slow draining, mold on the shower curtain. The room has a smell of some water damage. The Ac has a mildew smell. Usually there is soft and hard pillows, not here, all soft.  Will not stay at this hotel again!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Harshal P, General Manager at La Quinta Inn &amp; Suites Glen Rose, responded to this reviewResponded June 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2016</t>
+  </si>
+  <si>
+    <t>This has to be the worst hotel, for the price.  Let's start either the shower, slow draining, mold on the shower curtain. The room has a smell of some water damage. The Ac has a mildew smell. Usually there is soft and hard pillows, not here, all soft.  Will not stay at this hotel again!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r378203600-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>378203600</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>Meh...</t>
+  </si>
+  <si>
+    <t>Maybe best not to book through a third party as we definitely felt like we got the "priceline" room. The carpet had some weird stain and the bathroom had a moldy shower curtain. The door to our room didn't seal properly so everytime you entered, it stuck. Breakfast included, pretty standard. Front guest guy said I had to leave a credit card with him since I booked through Priceline?? This is one of the few hotels that allow dogs without a charge. Would I stay again? Only if we had my dog with us.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r371584060-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>371584060</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>Annual Family Picnic</t>
+  </si>
+  <si>
+    <t>Our Room was on the 3d floor, great view Exec. King with breakfast, We have never had a bad night here.  Service is always excellent and any request made has an immediate response.  We will book again next May with out a doubt.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r364903931-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>364903931</t>
+  </si>
+  <si>
+    <t>04/17/2016</t>
+  </si>
+  <si>
+    <t>Better Family Accommodations</t>
+  </si>
+  <si>
+    <t>On a trip with 5 kids and 5 adults, was the only area hotel that gladly and easily offered accommodations fitting our needs. Not only did they have free breakfast and an indoor pool, but also adjoining rooms and suites for larger families needing several rooms for small children to very conveniently and comfortably be connected to adults. The facility was nicely decorated, very clean, spacious and friendly.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r361993363-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>361993363</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t>Comfortable and clean!</t>
+  </si>
+  <si>
+    <t>I've stayed here several times while traveling and have never been disappointed. The free breakfast is always tasty and beds are always comfortable!  Hair dryers, microwaves, and irons galore!The workout area is a nice amenity too. Try it you'll like it!</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r361540405-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>361540405</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>Reservations</t>
+  </si>
+  <si>
+    <t>I spoke with a Tracy at the reservation desk to help me make special arrangements on a sold out night at the hotel. Tracy was polite and professional understanding my concerns and was willing to do whatever was necessary to make sure when the large group arrived , she had done everything she could to handle my special requests. She called me back to keep me up to date and was truly interested in making sure my needs were met. 5 STAR CUSTOMER SERVICE to Tracy! Thank you for taking care of my kiddos ; - )!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r356385542-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>356385542</t>
+  </si>
+  <si>
+    <t>03/17/2016</t>
+  </si>
+  <si>
+    <t>La No Va</t>
+  </si>
+  <si>
+    <t>Average accommodations. Pretty much what you expect.  A half way comfortable bed with weird pillows. It took  the A/C most of the day to cool off the room. The indoor pool is a plus and the free continental breakfast actually has eggs, sausage, and biscuits with gravy. But the internet is so very slow so if you go for business...DON'T.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r355736872-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>355736872</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Family trip</t>
+  </si>
+  <si>
+    <t>Room clean, breakfast varied and good enough.  Coffee as decent. However, bed is very hard and uncomfortable, couldn't sleep.  Pool water cloudy and hot tub water was dirty.  Glen rose is a small town in Texas near the Dinosaur Valley state park</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r341212364-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>341212364</t>
+  </si>
+  <si>
+    <t>01/19/2016</t>
+  </si>
+  <si>
+    <t>Poor customer service during reservation process</t>
+  </si>
+  <si>
+    <t>I was quoted a rate of $79/room by 2 hotel reservationists within a 24 hour period, however, when I requested to reserve a block of 10 rooms for an upcoming event, I was told that the rate was $89 (by the same reservationist who stated 60 seconds earlier that the rate was $79). When I politely questioned the rate increase, I was told that individuals from my party could 'take a chance that the rooms wouldn't fill up' and individually call and receive the lower rate but that the hotel charges more for blocked rooms. I have never experienced a block rate being more than a regular rate! When I questioned this again, the reservationist advised me that there are other hotels in the area that were cheaper and 'maybe you should call them instead.' I was stunned! I politely told her we would take our business elsewhere. I booked a 10 room block at the Quality Inn down the road for $79/room.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>I was quoted a rate of $79/room by 2 hotel reservationists within a 24 hour period, however, when I requested to reserve a block of 10 rooms for an upcoming event, I was told that the rate was $89 (by the same reservationist who stated 60 seconds earlier that the rate was $79). When I politely questioned the rate increase, I was told that individuals from my party could 'take a chance that the rooms wouldn't fill up' and individually call and receive the lower rate but that the hotel charges more for blocked rooms. I have never experienced a block rate being more than a regular rate! When I questioned this again, the reservationist advised me that there are other hotels in the area that were cheaper and 'maybe you should call them instead.' I was stunned! I politely told her we would take our business elsewhere. I booked a 10 room block at the Quality Inn down the road for $79/room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r341062373-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>341062373</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Our recent stay at the Glen Rose La Quinta was quite enjoyable.  Our room was spacious, clean and comfortable.  Breakfast was good and the breakfast area was exceptionally clean.  The staff at this location were courteous and friendly.  In addition, the indoor pool was a nice way to keep our kiddos entertained on a cold January afternoon.  We will definitely stay here again the next time we are in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r295891931-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>295891931</t>
+  </si>
+  <si>
+    <t>08/04/2015</t>
+  </si>
+  <si>
+    <t>I can only recommend this hotel if there is no other hotel available.  Rooms are dark. No wi/fi and their equipment is poorly maintained.  Good luck trying to find towels in the pool area or if you should need additional linens for your room. Carpets are VERY dirty. Not up to other La Quinta hotels.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r295138102-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>295138102</t>
+  </si>
+  <si>
+    <t>08/02/2015</t>
+  </si>
+  <si>
+    <t>Family Reunion</t>
+  </si>
+  <si>
+    <t>Nearly fifty members and three dogs called this beautifully decorated hotel home for the weekend. The staff was very accommodating and a pleasure to work with.  We most definitely would recommend for anyone if they are in the area of Glen Rose.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r294974110-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>294974110</t>
+  </si>
+  <si>
+    <t>Ok Stay,  Not very happy in some respects</t>
+  </si>
+  <si>
+    <t>I found our room to be clean, but I went to my sister-in-laws room and found a dead bug, it was a cricket.  I also found some yucking pink stuff on the nightstand.  Yuk and gross were the words me and my sister-in-law used.  It was also a meeting of types and on the second day, they gave our meeting room away even though we should have had it.  We ended up first meeting in the breakfast area, but people were late getting finished and it was loud.  So we ended up putting about 16 people in one of our rooms for the rest of the meeting.  We did ok, but tight fit.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>I found our room to be clean, but I went to my sister-in-laws room and found a dead bug, it was a cricket.  I also found some yucking pink stuff on the nightstand.  Yuk and gross were the words me and my sister-in-law used.  It was also a meeting of types and on the second day, they gave our meeting room away even though we should have had it.  We ended up first meeting in the breakfast area, but people were late getting finished and it was loud.  So we ended up putting about 16 people in one of our rooms for the rest of the meeting.  We did ok, but tight fit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r291947475-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>291947475</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay.</t>
+  </si>
+  <si>
+    <t>Great place to stay. We  really enjoyed the indoor pool in the Texas July 4th weather. Pool area was very well stocked with towels no matter what time we went. Rooms were very clean and the staff was very courteous and helpful. Would definitely stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r286231150-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>286231150</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>nice hotel</t>
+  </si>
+  <si>
+    <t>Very clean room, comfortable beds.  The hotel decor in the lobby is all dinosaur themed which was pretty neat.  The breakfast was very good.  The spa and pool were relaxing after driving all day.  We had no complaints about this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r286036379-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>286036379</t>
+  </si>
+  <si>
+    <t>Nice room, nice breakfast, bed was too firm</t>
+  </si>
+  <si>
+    <t>The staff is really friendly, breakfast was great.  Eggs, bisquit and gravy, waffles, etc.  One of the best hotel breakfast I have had.The room was nice, with a couch and high ceilings.  The biggest problem was that we could hear the people above us walking around and the floor creaked above our bed.  I am not sure this is the fault of the hotel.  The front desk did contact the people and got them to quieten down.   The first night there seemed to be small children jumping off the bed.  Like I said, that is not the hotel's fault and they did contact them to get them to make it stop.The biggest problem was the bed was too firm for our liking.  Our hips hurt in the morning and were not able to get a full night's sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff is really friendly, breakfast was great.  Eggs, bisquit and gravy, waffles, etc.  One of the best hotel breakfast I have had.The room was nice, with a couch and high ceilings.  The biggest problem was that we could hear the people above us walking around and the floor creaked above our bed.  I am not sure this is the fault of the hotel.  The front desk did contact the people and got them to quieten down.   The first night there seemed to be small children jumping off the bed.  Like I said, that is not the hotel's fault and they did contact them to get them to make it stop.The biggest problem was the bed was too firm for our liking.  Our hips hurt in the morning and were not able to get a full night's sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r280278952-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>280278952</t>
+  </si>
+  <si>
+    <t>06/14/2015</t>
+  </si>
+  <si>
+    <t>Fossil Capital of Texas</t>
+  </si>
+  <si>
+    <t>Glen Rose is a beautiful little city with a multitude of things to do and the best BBQ around.  This is the cleanest and best place to stay by far. Fossil Rim Park is a must if you have children and enjoy seeing animals in their natural habitat.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r278851695-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>278851695</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t>Great for families headed to the Dino Park!</t>
+  </si>
+  <si>
+    <t>Great LQ hotel.  We had connecting rooms - one 2 room suite and one regular King, both located at the end of the hall as suites are usually on the ends.  Our dog loved to go back and forth between the three rooms!  Elevator was in middle so no prob with that.  Comfy, and clean with great A/C!   Breakfast was basic, but good.  Pool was nice but could use a deeper cleaning on the tile.  What stood out for me at this LQ location (been to a bunch of them too!) was that in the pool area there is a wall phone over the towel stand.  Next to it is a sign with bold type that says something like "Emergency? Call 911 - you are at the Glen Rose La Quinta ...." and included the address and I think a call back number.  I have never seen this before, let alone a phone on the wall.    Very impressive.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great LQ hotel.  We had connecting rooms - one 2 room suite and one regular King, both located at the end of the hall as suites are usually on the ends.  Our dog loved to go back and forth between the three rooms!  Elevator was in middle so no prob with that.  Comfy, and clean with great A/C!   Breakfast was basic, but good.  Pool was nice but could use a deeper cleaning on the tile.  What stood out for me at this LQ location (been to a bunch of them too!) was that in the pool area there is a wall phone over the towel stand.  Next to it is a sign with bold type that says something like "Emergency? Call 911 - you are at the Glen Rose La Quinta ...." and included the address and I think a call back number.  I have never seen this before, let alone a phone on the wall.    Very impressive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r277241576-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>277241576</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>We stayed in a room with 2 beds while visiting Glen Rose to go to Dinosaur Valley State Park. The staff was very helpful in making sure I got the room I needed and for a great price. I noticed that they have won awards for being pet friendly. It was very quiet and clean although there was an odor that made me think they may have a moisture issue. Our room looked to be very well maintained. They serve breakfast but we didn't wake up early enough to try it. We would stay again.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r274852311-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>274852311</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Doggie Friendly La Quinta</t>
+  </si>
+  <si>
+    <t>Nice, clean and updated, free wi-fi, free breakfast.  We stayed on a  busy holiday weekend, but the desk was organized and ready for us.  Our keys ready to go and there was very little wait at check in even though there was a constant stream of people.  This hotel is GREAT location if you intend to see The Promise, go to Fossil Rim or the Dinosaur Park.  Additionally Grandbury is only 20 min. away.   I loved that I didn't have to worry about feeling out of place because I had a dog, there were several other dogs staying on the property as well.  My only complaint is that our door (Room 319) kept sticking and we had to literally kick in the door every time we entered the room. The front desk didn't seem to think it was a big deal and didn't make an attempt to have it repaired while we were there.  I would stay here again no problem.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice, clean and updated, free wi-fi, free breakfast.  We stayed on a  busy holiday weekend, but the desk was organized and ready for us.  Our keys ready to go and there was very little wait at check in even though there was a constant stream of people.  This hotel is GREAT location if you intend to see The Promise, go to Fossil Rim or the Dinosaur Park.  Additionally Grandbury is only 20 min. away.   I loved that I didn't have to worry about feeling out of place because I had a dog, there were several other dogs staying on the property as well.  My only complaint is that our door (Room 319) kept sticking and we had to literally kick in the door every time we entered the room. The front desk didn't seem to think it was a big deal and didn't make an attempt to have it repaired while we were there.  I would stay here again no problem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r274448594-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>274448594</t>
+  </si>
+  <si>
+    <t>05/25/2015</t>
+  </si>
+  <si>
+    <t>Clean and quiet- good value</t>
+  </si>
+  <si>
+    <t>We got a nice King size room for an affordable price. Generally quiet, but I would recommend trying to get a fair distance from the elevator. Less traffic. The parking lot is big enough, but narrow rows were hard turn park our suburban.The areas for improvement. Breakfast was typical of "free" but not very appetizing.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r269784493-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>269784493</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r269707856-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>269707856</t>
+  </si>
+  <si>
+    <t>05/03/2015</t>
+  </si>
+  <si>
+    <t>In town over night to go to Fossil Rim</t>
+  </si>
+  <si>
+    <t>Very clean and comfortable rooms. Staff was very friendly. Breakfast was good! Reasonable Rates! I got a nail in my tire, the staff was helpful in finding a place to fix it. If I go back to Glen Rose, I would rebook at the La Quinta.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r265950932-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>265950932</t>
+  </si>
+  <si>
+    <t>04/15/2015</t>
+  </si>
+  <si>
+    <t>Owner does not honor deals</t>
+  </si>
+  <si>
+    <t>After calling many times to make sure the pool and hot tub would be good for my daughter's birthday and being told yes it would, they decided to resurface the hot tub the second day we were there. The pool ,although heated, was ice cold. We were upset so the owner agreed to refund 50% of our stay at check out. Upon check out, we were refunded 30%. I spoke to him on the phone upset that it was incorrect and when I asked him to let me talk he told me to "shut the f#@$ up". Then he proceeded to tell me he was the owner so there was nothing I could do about it. The breakfast is a couple of gross sausage and biscuits and some packaged muffins.MoreShow less</t>
+  </si>
+  <si>
+    <t>After calling many times to make sure the pool and hot tub would be good for my daughter's birthday and being told yes it would, they decided to resurface the hot tub the second day we were there. The pool ,although heated, was ice cold. We were upset so the owner agreed to refund 50% of our stay at check out. Upon check out, we were refunded 30%. I spoke to him on the phone upset that it was incorrect and when I asked him to let me talk he told me to "shut the f#@$ up". Then he proceeded to tell me he was the owner so there was nothing I could do about it. The breakfast is a couple of gross sausage and biscuits and some packaged muffins.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r263585017-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>263585017</t>
+  </si>
+  <si>
+    <t>04/04/2015</t>
+  </si>
+  <si>
+    <t>Best LaQuinta by far</t>
+  </si>
+  <si>
+    <t>After reading the latest reviews on this place I was very skeptical about staying here but we had warned a free night with our points so we booked it. This is a newly remodeled La Quinta and I must say they did an outstanding job. The carpet is clean and very nice. The bathrooms have new tile in the tub area and and new granite counter tops. They are so new that they still have the manufacture sticker still on them. The shower curtain is one of the new La Quinta ones. We stayed in a king executive room and it was very spacious. For breakfast we had waffles, biscuits and gravy, and sausage. There were lots of kids in the indoor pool and hit tub having fun.  This place is only 7 minutes from The Promise and we received $8 off coupons from the check in desk so we chose to buy our tickets at the ticket office on site which was open all day for our convenience. We were also about 5 minutes from downtown. Could not have asked for a better place to stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>After reading the latest reviews on this place I was very skeptical about staying here but we had warned a free night with our points so we booked it. This is a newly remodeled La Quinta and I must say they did an outstanding job. The carpet is clean and very nice. The bathrooms have new tile in the tub area and and new granite counter tops. They are so new that they still have the manufacture sticker still on them. The shower curtain is one of the new La Quinta ones. We stayed in a king executive room and it was very spacious. For breakfast we had waffles, biscuits and gravy, and sausage. There were lots of kids in the indoor pool and hit tub having fun.  This place is only 7 minutes from The Promise and we received $8 off coupons from the check in desk so we chose to buy our tickets at the ticket office on site which was open all day for our convenience. We were also about 5 minutes from downtown. Could not have asked for a better place to stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r261128424-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>261128424</t>
+  </si>
+  <si>
+    <t>03/22/2015</t>
+  </si>
+  <si>
+    <t>In Town Overnight for the Navajo Code Talkers</t>
+  </si>
+  <si>
+    <t>We are a couple of old foggies.  My children are grown and we don't get out much.  Rm. 107 (spacious, clean).  Convenient to pool entry door.  Visited March 21, 2015.  Didn't go in but peeked in the indoor pool room and didn't notice all the yellow, gross, chemical pool issues listed in other reviews of this location but I think the room itself is yellow.  Didn't visit the exercise room either, but it looked clean.  The room/linens smelled clean.  Our only issues were with the TV and coffee maker.  Had to call for help with the TV (it was difficult to operate) and the coffeemaker had not been cleaned.  I used my hand to scrape off the yellowed and sticky residue on the inside of the pot.  The water in the handicap shower covers all of the floor; so, don't hang your clothes on the bathroom door hanger.  Didn't see any doggies and that is okay.  We love dogs but we do not travel with them.  There was plenty of food set out for the breakfast crowd and I enjoyed the boiled egg, sausage, gravy, biscuits, fresh fruit and juice.  Don't care to cook and there was a line for the waffle maker.  Family friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>We are a couple of old foggies.  My children are grown and we don't get out much.  Rm. 107 (spacious, clean).  Convenient to pool entry door.  Visited March 21, 2015.  Didn't go in but peeked in the indoor pool room and didn't notice all the yellow, gross, chemical pool issues listed in other reviews of this location but I think the room itself is yellow.  Didn't visit the exercise room either, but it looked clean.  The room/linens smelled clean.  Our only issues were with the TV and coffee maker.  Had to call for help with the TV (it was difficult to operate) and the coffeemaker had not been cleaned.  I used my hand to scrape off the yellowed and sticky residue on the inside of the pot.  The water in the handicap shower covers all of the floor; so, don't hang your clothes on the bathroom door hanger.  Didn't see any doggies and that is okay.  We love dogs but we do not travel with them.  There was plenty of food set out for the breakfast crowd and I enjoyed the boiled egg, sausage, gravy, biscuits, fresh fruit and juice.  Don't care to cook and there was a line for the waffle maker.  Family friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r260196131-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>260196131</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>Cut our stay short - indoor pool needs professional service</t>
+  </si>
+  <si>
+    <t>We originally booked 4 nights, but cut our visit short to 3 nights.  I chose the hotel because of the indoor pool, but that was a major disappointment. The pool was green and we could not see the bottom, even though it was only 3 ft. The spa had bubbles up to 2 feet high. I complained to the front desk, but I think she just added chlorine.  The next day, my eyes hurt just sitting in the unventilated area around the pool.  I made my kids bathe as soon as they returned to the room; my husband and I refused to get in.  The service was poor as well, and they ran out of food in the mornings.  They definitely need better managment.   We will not go back.MoreShow less</t>
+  </si>
+  <si>
+    <t>We originally booked 4 nights, but cut our visit short to 3 nights.  I chose the hotel because of the indoor pool, but that was a major disappointment. The pool was green and we could not see the bottom, even though it was only 3 ft. The spa had bubbles up to 2 feet high. I complained to the front desk, but I think she just added chlorine.  The next day, my eyes hurt just sitting in the unventilated area around the pool.  I made my kids bathe as soon as they returned to the room; my husband and I refused to get in.  The service was poor as well, and they ran out of food in the mornings.  They definitely need better managment.   We will not go back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r260172616-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>260172616</t>
+  </si>
+  <si>
+    <t>Doggie Hotel</t>
+  </si>
+  <si>
+    <t>You thought there was a Dog Show IN the hotel there were so many people and their dogs.  I did not book my hotel room, my daughter in law mother did.  She booked us a suite and herself a suite.  We all were up to go to the Dinosaur Park with our grandkids for spring break.  There were sooooo many dogs at this hotel it was horrible - Sorry I do not appreciate people bringing dogs to hotel were other people sleep.  Lesson learned for me check out to see if any hotel I stay in is an "Award Winning Pooch Hotel".  I was getting coffee at 7am and some woman and her dog were in the breakfast area getting some coffee.  Also this hotel STINKS - it smelled like wet dogs and old cigarette smoke - guess even the remodel couldn't get the smell it out of the walls.  Our room was clean enough.  The shower curtain had some mold on the bottom that needs to be changed out - easy fix.  Thanks Goodness Our A/C worked liked a charm.  We ran it on 67 on high all night to keep the stench down a couple of notches.  Looks like this hotel has been remodeled which I can appreciate but I guess to the large amount of guest this place need to be cleaned better.  The floors were dirty in the lobby, breakfast area, halls - again - I...You thought there was a Dog Show IN the hotel there were so many people and their dogs.  I did not book my hotel room, my daughter in law mother did.  She booked us a suite and herself a suite.  We all were up to go to the Dinosaur Park with our grandkids for spring break.  There were sooooo many dogs at this hotel it was horrible - Sorry I do not appreciate people bringing dogs to hotel were other people sleep.  Lesson learned for me check out to see if any hotel I stay in is an "Award Winning Pooch Hotel".  I was getting coffee at 7am and some woman and her dog were in the breakfast area getting some coffee.  Also this hotel STINKS - it smelled like wet dogs and old cigarette smoke - guess even the remodel couldn't get the smell it out of the walls.  Our room was clean enough.  The shower curtain had some mold on the bottom that needs to be changed out - easy fix.  Thanks Goodness Our A/C worked liked a charm.  We ran it on 67 on high all night to keep the stench down a couple of notches.  Looks like this hotel has been remodeled which I can appreciate but I guess to the large amount of guest this place need to be cleaned better.  The floors were dirty in the lobby, breakfast area, halls - again - I will say due to spring break there were lots of kids and of course all those dogs people had - I guess it would be tough to keep up.  I can say that the all the people working at LaQuinta were extremely nice and helpful.  The breakfast lady was working overtime - there were sooo many people.  She rocked - she didn't miss a beat.  I want to say something about the pool - Gross!!  First of all don't know if it was because of all the people - but the pool was kinda yucky - didn't notice before the kids jumped in.  But after sitting watching the kids - gross the tile floor was dirty, dirty -flight and lots of hair and "brown spots" - don't even want to guess what they were.  The walls sheetrock coming off (guess to they dampness caused by the pool).  Pool water was iffy - cloudy but that could have been because of the chemicals.  But the hot tub/spa water was gross - yellow tint and lots of foam.  No we did not get in there.  So after 20 mins we got the kids out and had them go back to our rooms and take showers. So I really can't give the hotel poor rating because the lady at the front desk was awesome and the breakfast lady was extremely nice and she was a hardworker.  So I will give this hotel average.  So if you don't mind staying in a doggie hotel this hotel is for you!MoreShow less</t>
+  </si>
+  <si>
+    <t>You thought there was a Dog Show IN the hotel there were so many people and their dogs.  I did not book my hotel room, my daughter in law mother did.  She booked us a suite and herself a suite.  We all were up to go to the Dinosaur Park with our grandkids for spring break.  There were sooooo many dogs at this hotel it was horrible - Sorry I do not appreciate people bringing dogs to hotel were other people sleep.  Lesson learned for me check out to see if any hotel I stay in is an "Award Winning Pooch Hotel".  I was getting coffee at 7am and some woman and her dog were in the breakfast area getting some coffee.  Also this hotel STINKS - it smelled like wet dogs and old cigarette smoke - guess even the remodel couldn't get the smell it out of the walls.  Our room was clean enough.  The shower curtain had some mold on the bottom that needs to be changed out - easy fix.  Thanks Goodness Our A/C worked liked a charm.  We ran it on 67 on high all night to keep the stench down a couple of notches.  Looks like this hotel has been remodeled which I can appreciate but I guess to the large amount of guest this place need to be cleaned better.  The floors were dirty in the lobby, breakfast area, halls - again - I...You thought there was a Dog Show IN the hotel there were so many people and their dogs.  I did not book my hotel room, my daughter in law mother did.  She booked us a suite and herself a suite.  We all were up to go to the Dinosaur Park with our grandkids for spring break.  There were sooooo many dogs at this hotel it was horrible - Sorry I do not appreciate people bringing dogs to hotel were other people sleep.  Lesson learned for me check out to see if any hotel I stay in is an "Award Winning Pooch Hotel".  I was getting coffee at 7am and some woman and her dog were in the breakfast area getting some coffee.  Also this hotel STINKS - it smelled like wet dogs and old cigarette smoke - guess even the remodel couldn't get the smell it out of the walls.  Our room was clean enough.  The shower curtain had some mold on the bottom that needs to be changed out - easy fix.  Thanks Goodness Our A/C worked liked a charm.  We ran it on 67 on high all night to keep the stench down a couple of notches.  Looks like this hotel has been remodeled which I can appreciate but I guess to the large amount of guest this place need to be cleaned better.  The floors were dirty in the lobby, breakfast area, halls - again - I will say due to spring break there were lots of kids and of course all those dogs people had - I guess it would be tough to keep up.  I can say that the all the people working at LaQuinta were extremely nice and helpful.  The breakfast lady was working overtime - there were sooo many people.  She rocked - she didn't miss a beat.  I want to say something about the pool - Gross!!  First of all don't know if it was because of all the people - but the pool was kinda yucky - didn't notice before the kids jumped in.  But after sitting watching the kids - gross the tile floor was dirty, dirty -flight and lots of hair and "brown spots" - don't even want to guess what they were.  The walls sheetrock coming off (guess to they dampness caused by the pool).  Pool water was iffy - cloudy but that could have been because of the chemicals.  But the hot tub/spa water was gross - yellow tint and lots of foam.  No we did not get in there.  So after 20 mins we got the kids out and had them go back to our rooms and take showers. So I really can't give the hotel poor rating because the lady at the front desk was awesome and the breakfast lady was extremely nice and she was a hardworker.  So I will give this hotel average.  So if you don't mind staying in a doggie hotel this hotel is for you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r259500886-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>259500886</t>
+  </si>
+  <si>
+    <t>03/14/2015</t>
+  </si>
+  <si>
+    <t>Noisy nightmare!!</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for two nights during spring break week. For both nights of our stay the room above us was EXTREMELY noisy with kids running, jumping, yelling, etc. We waited until after 10:00pm to request that the front desk address the noise issue. We were told that the guests in the noisy room had paid for their room just as we had and there was nothing they could do. We made several more calls to the front desk (Britney) with no relief. At 11:30pm my wife went down to the front desk and requested to speak to a manager. Britney then called the manager and he told her to go to the room and knock on the door. Not sure if she ever did because the noise continued unabated for another hour.
+Next night same drill, my wife and I went to the front desk where we waited for Britney to complete a personal phone call before we made another noise complaint. Britney told us that she was" not going to deal with this tonight". However, she did call the room above us and after another sleepless hour the noise died down.
+All in all was a very disappointing experience trying to deal with a staff that just did not seem to care.
+Another issue was the breakfast. It was very crowded and seemed very disorganized. Not enough food or drinks. There was one person trying to...We stayed at this hotel for two nights during spring break week. For both nights of our stay the room above us was EXTREMELY noisy with kids running, jumping, yelling, etc. We waited until after 10:00pm to request that the front desk address the noise issue. We were told that the guests in the noisy room had paid for their room just as we had and there was nothing they could do. We made several more calls to the front desk (Britney) with no relief. At 11:30pm my wife went down to the front desk and requested to speak to a manager. Britney then called the manager and he told her to go to the room and knock on the door. Not sure if she ever did because the noise continued unabated for another hour.Next night same drill, my wife and I went to the front desk where we waited for Britney to complete a personal phone call before we made another noise complaint. Britney told us that she was" not going to deal with this tonight". However, she did call the room above us and after another sleepless hour the noise died down.All in all was a very disappointing experience trying to deal with a staff that just did not seem to care.Another issue was the breakfast. It was very crowded and seemed very disorganized. Not enough food or drinks. There was one person trying to keep up with demand and he just couldn't! I understand it's 'free' but they should prepare for the large crowd when they have a full house.To recap another review, the pool was way too heavily chlorinated!!On a positive note, the property is very clean and well maintained.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for two nights during spring break week. For both nights of our stay the room above us was EXTREMELY noisy with kids running, jumping, yelling, etc. We waited until after 10:00pm to request that the front desk address the noise issue. We were told that the guests in the noisy room had paid for their room just as we had and there was nothing they could do. We made several more calls to the front desk (Britney) with no relief. At 11:30pm my wife went down to the front desk and requested to speak to a manager. Britney then called the manager and he told her to go to the room and knock on the door. Not sure if she ever did because the noise continued unabated for another hour.
+Next night same drill, my wife and I went to the front desk where we waited for Britney to complete a personal phone call before we made another noise complaint. Britney told us that she was" not going to deal with this tonight". However, she did call the room above us and after another sleepless hour the noise died down.
+All in all was a very disappointing experience trying to deal with a staff that just did not seem to care.
+Another issue was the breakfast. It was very crowded and seemed very disorganized. Not enough food or drinks. There was one person trying to...We stayed at this hotel for two nights during spring break week. For both nights of our stay the room above us was EXTREMELY noisy with kids running, jumping, yelling, etc. We waited until after 10:00pm to request that the front desk address the noise issue. We were told that the guests in the noisy room had paid for their room just as we had and there was nothing they could do. We made several more calls to the front desk (Britney) with no relief. At 11:30pm my wife went down to the front desk and requested to speak to a manager. Britney then called the manager and he told her to go to the room and knock on the door. Not sure if she ever did because the noise continued unabated for another hour.Next night same drill, my wife and I went to the front desk where we waited for Britney to complete a personal phone call before we made another noise complaint. Britney told us that she was" not going to deal with this tonight". However, she did call the room above us and after another sleepless hour the noise died down.All in all was a very disappointing experience trying to deal with a staff that just did not seem to care.Another issue was the breakfast. It was very crowded and seemed very disorganized. Not enough food or drinks. There was one person trying to keep up with demand and he just couldn't! I understand it's 'free' but they should prepare for the large crowd when they have a full house.To recap another review, the pool was way too heavily chlorinated!!On a positive note, the property is very clean and well maintained.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r259036944-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>259036944</t>
+  </si>
+  <si>
+    <t>03/11/2015</t>
+  </si>
+  <si>
+    <t>Spring Break Nightmare</t>
+  </si>
+  <si>
+    <t>First I want to say that I have stayed at this hotel in the past with a good result but not this time.  The important thing was once we checked in around 3:00 pm the kids wanted to swim.  We back around 7:30 and figured the chlorine would be better.  Again we lasted less then 30 minutes.  My kids were coughing and vomiting the entire night.  
+We were not the only family experiencing these problems.  Several families told the clerk at the front desk.  I did call poison control to make sure the kids were going to be ok.  
+At 11:30 our air conditioner quit working.  I called to the front desk who called the manager and we were told to unplug it for 5 minutes and it should be fine but do not put it past 70.  We could not even find the plug so the clerk came up and had to take the front panel off to find the plug and we had to switch rooms because she could not get it to work.
+Each time we told a clerk about the chlorine their response was it was cleaned at 1 pm which we all said was unacceptable.
+When I checked out I again talked to the asst manager who reduced my room cost by 20.00.  Considering everything my kids went through 20.00 was nothing.  There were several families talking about how they had to give their kids...First I want to say that I have stayed at this hotel in the past with a good result but not this time.  The important thing was once we checked in around 3:00 pm the kids wanted to swim.  We back around 7:30 and figured the chlorine would be better.  Again we lasted less then 30 minutes.  My kids were coughing and vomiting the entire night.  We were not the only family experiencing these problems.  Several families told the clerk at the front desk.  I did call poison control to make sure the kids were going to be ok.  At 11:30 our air conditioner quit working.  I called to the front desk who called the manager and we were told to unplug it for 5 minutes and it should be fine but do not put it past 70.  We could not even find the plug so the clerk came up and had to take the front panel off to find the plug and we had to switch rooms because she could not get it to work.Each time we told a clerk about the chlorine their response was it was cleaned at 1 pm which we all said was unacceptable.When I checked out I again talked to the asst manager who reduced my room cost by 20.00.  Considering everything my kids went through 20.00 was nothing.  There were several families talking about how they had to give their kids breathing treatments.  I was also told there was a note on the door but not when we were there.  I even had to open a door to try to help with ventilation.It was like ok no big deal.  It is a big deal when you make our kids sick because you are negligent. I don't know if the bed was comfortable since I was up most of the night with the kids. The rooms appeared to be clean.  The breakfast was ok but not great.  The breakfast was typical for a hotel.I will not stay any place that does not put the safety of its guess first even if it means shutting the pool down when you start to receive complaints or make sure the chemicals are appropriate levels.MoreShow less</t>
+  </si>
+  <si>
+    <t>First I want to say that I have stayed at this hotel in the past with a good result but not this time.  The important thing was once we checked in around 3:00 pm the kids wanted to swim.  We back around 7:30 and figured the chlorine would be better.  Again we lasted less then 30 minutes.  My kids were coughing and vomiting the entire night.  
+We were not the only family experiencing these problems.  Several families told the clerk at the front desk.  I did call poison control to make sure the kids were going to be ok.  
+At 11:30 our air conditioner quit working.  I called to the front desk who called the manager and we were told to unplug it for 5 minutes and it should be fine but do not put it past 70.  We could not even find the plug so the clerk came up and had to take the front panel off to find the plug and we had to switch rooms because she could not get it to work.
+Each time we told a clerk about the chlorine their response was it was cleaned at 1 pm which we all said was unacceptable.
+When I checked out I again talked to the asst manager who reduced my room cost by 20.00.  Considering everything my kids went through 20.00 was nothing.  There were several families talking about how they had to give their kids...First I want to say that I have stayed at this hotel in the past with a good result but not this time.  The important thing was once we checked in around 3:00 pm the kids wanted to swim.  We back around 7:30 and figured the chlorine would be better.  Again we lasted less then 30 minutes.  My kids were coughing and vomiting the entire night.  We were not the only family experiencing these problems.  Several families told the clerk at the front desk.  I did call poison control to make sure the kids were going to be ok.  At 11:30 our air conditioner quit working.  I called to the front desk who called the manager and we were told to unplug it for 5 minutes and it should be fine but do not put it past 70.  We could not even find the plug so the clerk came up and had to take the front panel off to find the plug and we had to switch rooms because she could not get it to work.Each time we told a clerk about the chlorine their response was it was cleaned at 1 pm which we all said was unacceptable.When I checked out I again talked to the asst manager who reduced my room cost by 20.00.  Considering everything my kids went through 20.00 was nothing.  There were several families talking about how they had to give their kids breathing treatments.  I was also told there was a note on the door but not when we were there.  I even had to open a door to try to help with ventilation.It was like ok no big deal.  It is a big deal when you make our kids sick because you are negligent. I don't know if the bed was comfortable since I was up most of the night with the kids. The rooms appeared to be clean.  The breakfast was ok but not great.  The breakfast was typical for a hotel.I will not stay any place that does not put the safety of its guess first even if it means shutting the pool down when you start to receive complaints or make sure the chemicals are appropriate levels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r222738275-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>222738275</t>
+  </si>
+  <si>
+    <t>08/18/2014</t>
+  </si>
+  <si>
+    <t>Good location, decent breakfast - Cleanliness issue</t>
+  </si>
+  <si>
+    <t>I recently stayed here for a night with my family and friends. At 9 PM, the front desk looked gloomy with low light conditions and the staff made it worse. She didn't greet us (or even took note of us). When my friend (who was travelling with us) checked in on her reservation, the front desk staff just passed me my door key through her. No questions asked, No details given. I felt that was shabby hospitality.When ready to sleep, I was shocked to see blood stains on my comforter. I just kept it aside and used the blanket to keep me warm, as I was too tired to get the staff involved (and after witnessing the earlier reception). The bright side to our stay was the service the next morning. The switch lady staff was very sincere, attentive and apologized for the issue, when I brought it to her attention upon checkout.Overall - good location (close to Glen Rose downtown, BIG CUP restaurant which serves decent Mexican food, pizza hut &lt; 1 mile away, few miles from dinosaur world and state park), enough parking spaces, sits on top of a small hill which is kind of nice, break fast - cold boiled eggs, warm waffles, milk/cereals, fruits, bread, biscuit/sausage/gravy.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>I recently stayed here for a night with my family and friends. At 9 PM, the front desk looked gloomy with low light conditions and the staff made it worse. She didn't greet us (or even took note of us). When my friend (who was travelling with us) checked in on her reservation, the front desk staff just passed me my door key through her. No questions asked, No details given. I felt that was shabby hospitality.When ready to sleep, I was shocked to see blood stains on my comforter. I just kept it aside and used the blanket to keep me warm, as I was too tired to get the staff involved (and after witnessing the earlier reception). The bright side to our stay was the service the next morning. The switch lady staff was very sincere, attentive and apologized for the issue, when I brought it to her attention upon checkout.Overall - good location (close to Glen Rose downtown, BIG CUP restaurant which serves decent Mexican food, pizza hut &lt; 1 mile away, few miles from dinosaur world and state park), enough parking spaces, sits on top of a small hill which is kind of nice, break fast - cold boiled eggs, warm waffles, milk/cereals, fruits, bread, biscuit/sausage/gravy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r219562912-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>219562912</t>
+  </si>
+  <si>
+    <t>08/04/2014</t>
+  </si>
+  <si>
+    <t>A 3+ or 4-</t>
+  </si>
+  <si>
+    <t>Had to rate either a 3 or 4.  A 3+ or 4- would be more like it.  Everything was good to very good including the price and breakfast (good for the usual stuff).  However, I could not use the dead bold and the security lock was broken.  I was there with my granddaughter and special needs daughter.  I was not very concerned as I was always in the room with them and this is Texas meaning I was armed and wouldn't mind using it.  I reported it to the front desk twice.  The last time I was told they were aware of it and parts were ordered.  I wonder?  Location was good, parking lot very good and easy to find.  If locks worked I rate it a 4.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Had to rate either a 3 or 4.  A 3+ or 4- would be more like it.  Everything was good to very good including the price and breakfast (good for the usual stuff).  However, I could not use the dead bold and the security lock was broken.  I was there with my granddaughter and special needs daughter.  I was not very concerned as I was always in the room with them and this is Texas meaning I was armed and wouldn't mind using it.  I reported it to the front desk twice.  The last time I was told they were aware of it and parts were ordered.  I wonder?  Location was good, parking lot very good and easy to find.  If locks worked I rate it a 4.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r218081726-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>218081726</t>
+  </si>
+  <si>
+    <t>07/28/2014</t>
+  </si>
+  <si>
+    <t>Very nice La Quinta</t>
+  </si>
+  <si>
+    <t>My hubby decided to do one of those mud and obstacle course races at a resort in the area. Since the resort was way too expensive, we opted for a cheaper option in town. The La Quinta was one of the few options in our price range for that weekend and although I'm not normally a fan of La Quinta, we booked.Surprisingly, this appears to be either a brand new or recently renovated hotel. The lobby was very nice and new looking. There were a lot of people in town for the race but the staff was pleasant to everyone checking in. The room itself was clean with what felt like brand new furniture. The only downside was our room was right next to the elevator and we could clearly hear the elevator all night. Had we not been in that location, I probably would have slept even better.We did not eat breakfast the next day, so I can't comment on that but if you find yourself in Glen Rose, the La Quinta is a very good option.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>My hubby decided to do one of those mud and obstacle course races at a resort in the area. Since the resort was way too expensive, we opted for a cheaper option in town. The La Quinta was one of the few options in our price range for that weekend and although I'm not normally a fan of La Quinta, we booked.Surprisingly, this appears to be either a brand new or recently renovated hotel. The lobby was very nice and new looking. There were a lot of people in town for the race but the staff was pleasant to everyone checking in. The room itself was clean with what felt like brand new furniture. The only downside was our room was right next to the elevator and we could clearly hear the elevator all night. Had we not been in that location, I probably would have slept even better.We did not eat breakfast the next day, so I can't comment on that but if you find yourself in Glen Rose, the La Quinta is a very good option.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r215600424-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>215600424</t>
+  </si>
+  <si>
+    <t>07/15/2014</t>
+  </si>
+  <si>
+    <t>Wonderful service</t>
+  </si>
+  <si>
+    <t>My overnight stay here while on a trip home to San Antonio was perfect.  The check in process was hassle-free and my requests catered to with no problem.  The room was spotless and very quiet. When I traveled 40 miles down the road the road and thought that I had left my shoes, my call was taken by Tracey who was so polite and helpful.  When it turned out that my shoes were in the backseat of my car, she was gracious and good-humored despite having run up to check my room for the missing shoes.Each member of the staff I encountered was exceptionally polite and helpful and I will continue to stop there when those last miles to San Antonio seem like too many.MoreShow less</t>
+  </si>
+  <si>
+    <t>My overnight stay here while on a trip home to San Antonio was perfect.  The check in process was hassle-free and my requests catered to with no problem.  The room was spotless and very quiet. When I traveled 40 miles down the road the road and thought that I had left my shoes, my call was taken by Tracey who was so polite and helpful.  When it turned out that my shoes were in the backseat of my car, she was gracious and good-humored despite having run up to check my room for the missing shoes.Each member of the staff I encountered was exceptionally polite and helpful and I will continue to stop there when those last miles to San Antonio seem like too many.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r211844965-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>211844965</t>
+  </si>
+  <si>
+    <t>06/24/2014</t>
+  </si>
+  <si>
+    <t>Happy stay</t>
+  </si>
+  <si>
+    <t>Overall a great place to stay! Negative: two minor issues: 1)the old shower head that didn't put out enough water and 2)the extremely cold pool. My kids were disappointed that it was too way cold for them and not able to swim and the spa, was way too hot. Positive: the breakfast rocked and so did the staff!!!</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r211761054-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>211761054</t>
+  </si>
+  <si>
+    <t>06/23/2014</t>
+  </si>
+  <si>
+    <t>VERY nice!</t>
+  </si>
+  <si>
+    <t>Have been visiting Glen Rose my entire life....staying (as a child) first at the old Glen Rose Hotel and most recently at this nice new LaQuinta.  It was awesome!  The rooms are very comfortable, WiFi is free (YAY!), each room has a refrigerator which is MOST welcome, and the staff was super helpful.  The hotel sits on high ground kind of looking over the Paluxy Valley and it was nice (being from Dallas) actually seeing a little topography!  We'll be back next year--if not sooner.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r210498719-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>210498719</t>
+  </si>
+  <si>
+    <t>06/15/2014</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r206373923-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>206373923</t>
+  </si>
+  <si>
+    <t>05/20/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r206279933-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>206279933</t>
+  </si>
+  <si>
+    <t>05/19/2014</t>
+  </si>
+  <si>
+    <t>Great Stay - LaQuinta, Glen Rose</t>
+  </si>
+  <si>
+    <t>Great hotel, Glen Rose is a wonderful town.  We had stayed at this hotel before and will gladly stay there again.  We enjoy the LaQuinta brand, with a good clean room, nice breakfast, etc...  Clean bathrooms and nice beds were what we recall from our previous stay and this stay was no different.  Resonably priced, but I used points with no difficulty in making reservations.  Great Stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r205755278-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>205755278</t>
+  </si>
+  <si>
+    <t>05/10/2014</t>
+  </si>
+  <si>
+    <t>Family gathering at Dinosaur Valley Park</t>
+  </si>
+  <si>
+    <t>We stayed the first weekend in May again this year.  We received excellent service for our two days at the hotel.  There was not a single problem and the staff was very courteous and helpful. Parking is convenient and feels very secure.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r203680158-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>203680158</t>
+  </si>
+  <si>
+    <t>04/27/2014</t>
+  </si>
+  <si>
+    <t>Glen Rose, Texas</t>
+  </si>
+  <si>
+    <t>Hotel lobby, rooms, service and breakfast were good. The pool area and cleanliness of the outside were very sub standard. Hot tub was dirty and the pool area had no towels. The trash receptacles outside were overflowing with trash. Stairway doors and elevator doors were nasty.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r201141448-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>201141448</t>
+  </si>
+  <si>
+    <t>04/14/2014</t>
+  </si>
+  <si>
+    <t>I wouldn't bother</t>
+  </si>
+  <si>
+    <t>The staff was rude.  The floors in the halls and stairwells were dirty.  The room was decent.  It was clean, the bathrooms were clean, and there was ample hot water for showers. The breakfast was very poor.  The redeeming item was the texas-shaped waffle.  The sausage patties were almost warm and looked like rubber.  The hard boiled eggs were not fresh; maybe a day old.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r200774331-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>200774331</t>
+  </si>
+  <si>
+    <t>04/11/2014</t>
+  </si>
+  <si>
+    <t>There are Cleaner places to stay</t>
+  </si>
+  <si>
+    <t>Outside of the cleanliness issues, this hotel was not a bad place to stay.  The breakfast foods were fresh and plentiful, and the staff was friendly.  But the stains on the furniture, bed linens and towels as well as the unemptied trash can in the bathroom made me feel very uncomfortable in the hotel room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r199204622-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>199204622</t>
+  </si>
+  <si>
+    <t>03/29/2014</t>
+  </si>
+  <si>
+    <t>We had a good night</t>
+  </si>
+  <si>
+    <t>We started out with a situation that the sink was stopped up but we were quickly given another room that was fine. We had a nice one night stay and will do it again if we are going through Glen Rose. Staff was very helpful</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r197902958-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>197902958</t>
+  </si>
+  <si>
+    <t>03/18/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r197838772-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>197838772</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>Love everything about this hotel.  Staff was very helpful and hospitable.  Room was clean.  Breakfast was a great assortment and fresh.  The kids loved the indoor pool and spa.  Great city!   Will stay here again, for sure!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r196875297-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>196875297</t>
+  </si>
+  <si>
+    <t>03/10/2014</t>
+  </si>
+  <si>
+    <t>It's good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The place was clean and comfortable. Pool area was nice &amp; open late which we loved!! We missed breakfast but overall was a nice stay. If your in the area it's a great resting place seemed quiet. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r193392010-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>193392010</t>
+  </si>
+  <si>
+    <t>02/07/2014</t>
+  </si>
+  <si>
+    <t>beyond expectations</t>
+  </si>
+  <si>
+    <t>all the people that work there are first class. my wife and i were treated like kings. i left a 140.00 shirt hanging in the closet and called the next day to see about it and the cleaning lady had already turned it in. thanks for being honest, not many people would have done that. next time in glen rose i will stay again.  very, very clean place........................</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r189435744-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>189435744</t>
+  </si>
+  <si>
+    <t>01/02/2014</t>
+  </si>
+  <si>
+    <t>Nice and quiet new years eve</t>
+  </si>
+  <si>
+    <t>The wife and I wanted to have a quiet new years eve and the kids and grandkids wanted to party so we let'em have the house and we went to nearby Glen Rose to spend a nice peaceful night. We weren't disappointed. Everybody must have been at home or partying somewhere else because we practicely had the place to ourselves. Being local we knew the motel wasn't new, but you wouldn't have known if you didn't know better. After reading some of the reviews, we weren't sure what to expect because not all the of the reviews were good. The room was clean and fresh smelling. The bed was plenty comfortable. Our room had a sofa where we kicked back and watched the new year come in on tv. We didn't get up in time for breakfast so we can't say about it or if they even had breakfast. We're more then willing to give La Quinta another try.MoreShow less</t>
+  </si>
+  <si>
+    <t>The wife and I wanted to have a quiet new years eve and the kids and grandkids wanted to party so we let'em have the house and we went to nearby Glen Rose to spend a nice peaceful night. We weren't disappointed. Everybody must have been at home or partying somewhere else because we practicely had the place to ourselves. Being local we knew the motel wasn't new, but you wouldn't have known if you didn't know better. After reading some of the reviews, we weren't sure what to expect because not all the of the reviews were good. The room was clean and fresh smelling. The bed was plenty comfortable. Our room had a sofa where we kicked back and watched the new year come in on tv. We didn't get up in time for breakfast so we can't say about it or if they even had breakfast. We're more then willing to give La Quinta another try.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r184932429-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>184932429</t>
+  </si>
+  <si>
+    <t>11/16/2013</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>My dog loves staying at this wonderful "dog friendly" hotel as much as I do. Love this hotel and Glen Rose. Internet access is not always available at night during peak loads, but the business center is free and has main line access. Otherwise, this hotel is a luxury stay for a mid-luxury price, and no fee for dogs is a super, super plus.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r182878887-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>182878887</t>
+  </si>
+  <si>
+    <t>10/29/2013</t>
+  </si>
+  <si>
+    <t>Excellent stay at a great price</t>
+  </si>
+  <si>
+    <t>The lobby was very welcoming, &amp; check-in went smoothly with exactly what we requested.  Our room was clean, the staff was friendly and we had a pleasant stay.  Nice to have a microwave and refrigerator in the room for convenience.  We will definitely choose LaQuinta again.  I'd say for Glen Rose lodging, this is the best!</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r182513718-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>182513718</t>
+  </si>
+  <si>
+    <t>10/26/2013</t>
+  </si>
+  <si>
+    <t>Very nice hotel and very clean.  Courteous and helpful staff. Room was very comfortable and clean. Very helpful for info of surrounding areas (dining, activities, etc.) Would definitely recommend and would stay here again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r182359381-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>182359381</t>
+  </si>
+  <si>
+    <t>10/25/2013</t>
+  </si>
+  <si>
+    <t>great stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">great place to stay in the Glen Rose TX area. I highly recommend it. The inside pool area was a hit with our grandson. This made it nice to relax and watch him swim after our long day of travel and site seeing. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r178698385-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>178698385</t>
+  </si>
+  <si>
+    <t>09/26/2013</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r177635148-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>177635148</t>
+  </si>
+  <si>
+    <t>09/18/2013</t>
+  </si>
+  <si>
+    <t>Great choice for a hotel in Glen Rose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was very clean and the staff was terrific. The location was very convenient but far enough if the highway so there was no road noise. A very good value.  We will definitely stay here on our next visit to the area. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r176443587-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>176443587</t>
+  </si>
+  <si>
+    <t>09/09/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r175137281-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>175137281</t>
+  </si>
+  <si>
+    <t>09/01/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r174502234-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>174502234</t>
+  </si>
+  <si>
+    <t>08/28/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r171967820-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>171967820</t>
+  </si>
+  <si>
+    <t>08/12/2013</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel with great costumer service.  Room was very clean and front desk was very helpful. Had a very good Stay and will be back again. Very helpful at finding things to do and places to go with my family to enjoy ourselves. Enjoyed the state park and will plan to stay longer next time. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r170118983-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>170118983</t>
+  </si>
+  <si>
+    <t>07/31/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r160833643-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>160833643</t>
+  </si>
+  <si>
+    <t>05/15/2013</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Nice clean and big rooms, great price can't beat that and nice staff, really excellent pool my kids loved that , staff was so helpful , they gave us really quite room, there hot breakfast was good, clean lobby, my kids had really good time and they didn't want to go back</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r159999003-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>159999003</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r159154855-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>159154855</t>
+  </si>
+  <si>
+    <t>04/29/2013</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r159093488-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>159093488</t>
+  </si>
+  <si>
+    <t>04/28/2013</t>
+  </si>
+  <si>
+    <t>Worthy of a second chance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There was a mistake and they rented out our room with double beds so they upgraded us to a suite which was not impressive because we needed 2 beds and the suite had only one bed and a very uncomfortable hide-a-bed. But the hotel was nice and clean and really nice inside. It was a great location. I'll definitely book there again and hope there aren't any mistakes this time. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r159063503-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>159063503</t>
+  </si>
+  <si>
+    <t>Great place for a weekend getaway!</t>
+  </si>
+  <si>
+    <t>This is one of our favorite hotels for a weekend getaway just visited for the second time in two months.  Very close and convenient to Dinasaur Valley and Fossil Rim.  Very clean and modern, nice indoor pool, and a fast elevator (you don't realize how important until you get a SLOW one). Overall a great value!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r154903793-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>154903793</t>
+  </si>
+  <si>
+    <t>03/17/2013</t>
+  </si>
+  <si>
+    <t>Great for the price</t>
+  </si>
+  <si>
+    <t>My room was clean close to all attractions. Friendly staff.  I was there for a conference with the church and enjoyed my visit. I would consider staying there again . It was a great room for the price. Bed was comfortable.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r151780413-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>151780413</t>
+  </si>
+  <si>
+    <t>02/09/2013</t>
+  </si>
+  <si>
+    <t>Good value in Glen Rose</t>
+  </si>
+  <si>
+    <t>Great stay with my family.  Got a 2 room suite for 89.  Of course it's the off season but that is still an amazing value.  They were prompt on every single request.  They even turned the heat up for us in the pool!  We had a great couple of days and they made it easy breezy.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r150604235-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>150604235</t>
+  </si>
+  <si>
+    <t>01/25/2013</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r149530744-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>149530744</t>
+  </si>
+  <si>
+    <t>01/12/2013</t>
+  </si>
+  <si>
+    <t>Very Nice!!</t>
+  </si>
+  <si>
+    <t>My husband and I booked this hotel for two nights for a little weekend getaway to Glen Rose. We booked this hotel because it was one of the cheapest we could find online, and I figured it would be like other La Quintas I've stayed in before--nice enough but not great. I was very pleasantly surprised with this one! Very, very clean with a "new" feeling and modern decor. It even smells good when you walk down the hall! All the other reviews commenting on the cleanliness of this place are correct; it is very clean! It's not often that I actually want to take a bath in a hotel bath tub, but our tub was so spotless that I could not resist.The indoor pool and hot tub seemed really nice, too. Unfortunately, we didn't bring our swimsuits, and I totally regret that! Oh, and I can't forget the bed, the comfy comfy bed. Overall, just a really great experience for a reasonable price. This place made our trip even better, and I highly recommend staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I booked this hotel for two nights for a little weekend getaway to Glen Rose. We booked this hotel because it was one of the cheapest we could find online, and I figured it would be like other La Quintas I've stayed in before--nice enough but not great. I was very pleasantly surprised with this one! Very, very clean with a "new" feeling and modern decor. It even smells good when you walk down the hall! All the other reviews commenting on the cleanliness of this place are correct; it is very clean! It's not often that I actually want to take a bath in a hotel bath tub, but our tub was so spotless that I could not resist.The indoor pool and hot tub seemed really nice, too. Unfortunately, we didn't bring our swimsuits, and I totally regret that! Oh, and I can't forget the bed, the comfy comfy bed. Overall, just a really great experience for a reasonable price. This place made our trip even better, and I highly recommend staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r149105734-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>149105734</t>
+  </si>
+  <si>
+    <t>01/07/2013</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We checked inn really  late on 4th the lady at the front desk was really helpful, hotel was completely full but she gave me good rate and they have hot break fast which had lot of variety, next day we used there pool it was heated nice and warm, can't complain about any thing it was an excellent stay look forward to stay there again </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r139562451-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>139562451</t>
+  </si>
+  <si>
+    <t>09/06/2012</t>
+  </si>
+  <si>
+    <t>Nice Hotel!</t>
+  </si>
+  <si>
+    <t>Probably the best LaQuinta I have stayed at. Room was great and the service was top! The front desk, when asked where the ice machine was, told me where it was at and I thanked him. The next thing I know he is at my door with the ice, amazing! Clean nice comfortable room.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r136976741-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>136976741</t>
+  </si>
+  <si>
+    <t>08/12/2012</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r135660058-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>135660058</t>
+  </si>
+  <si>
+    <t>07/28/2012</t>
+  </si>
+  <si>
+    <t>Not worth the money.</t>
+  </si>
+  <si>
+    <t>Immediately upon arriving the attendant at the front desk was obviously asleep and my family walking in woke him. Then he doesn't tell me what room, he just hands me a room card with what appeared to me as room 202, but I was wrong. It was room 222 he said when I carried all of my luggage back to the first floor to find out. Then my room key would not work so I went back down for him to tell me that the hotel had been recently struck by lightening therefore you had to put the room key in, then pull down and back on the handle just to get into our room. If my family wasn't so tired tonight I would have not stayed here. To top it all off our bathroom door would hardly shut, you had to slam it, plenty of marks on the door frame to support that this had been a problem for a long time. Definatly NOT WORTH THE MONEY. MoreShow less</t>
+  </si>
+  <si>
+    <t>Immediately upon arriving the attendant at the front desk was obviously asleep and my family walking in woke him. Then he doesn't tell me what room, he just hands me a room card with what appeared to me as room 202, but I was wrong. It was room 222 he said when I carried all of my luggage back to the first floor to find out. Then my room key would not work so I went back down for him to tell me that the hotel had been recently struck by lightening therefore you had to put the room key in, then pull down and back on the handle just to get into our room. If my family wasn't so tired tonight I would have not stayed here. To top it all off our bathroom door would hardly shut, you had to slam it, plenty of marks on the door frame to support that this had been a problem for a long time. Definatly NOT WORTH THE MONEY. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r135617586-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>135617586</t>
+  </si>
+  <si>
+    <t>Lovely Glen Rose Location</t>
+  </si>
+  <si>
+    <t>We have stayed many timesand never a bad experienceRooms are spacious..clean and employees are always top notch..It is ever so quiet..... sits high looking out over the rolling Glen RoseHills.......We are happy to recommend..</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r134652055-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>134652055</t>
+  </si>
+  <si>
+    <t>07/17/2012</t>
+  </si>
+  <si>
+    <t>Cricket Hell</t>
+  </si>
+  <si>
+    <t>They are having a major issue with crickets.  So bad they were on the 3rd floor and in the rooms.  This hotel is old and dirty.  Looks clean at first glance but the carpets in the halls are nasty.  The halls and rooms smell like dead crickets.  We had over a dozen dead crickets in our room, the wi-fi does not reach the 3rd floor and there was hair all over our bed.  We got our money back after about 10 minutes there and went to the Holiday Inn Express where is was amazing.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r134055796-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>134055796</t>
+  </si>
+  <si>
+    <t>07/10/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r133376174-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>133376174</t>
+  </si>
+  <si>
+    <t>07/03/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r133369968-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>133369968</t>
+  </si>
+  <si>
+    <t>BEST PLACE!!!</t>
+  </si>
+  <si>
+    <t>The entire hotel reeked of cleanliness! It was sparkling.  The rooms were top notch, the bkfst area was very nice.  Definately recommend this place.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r132769767-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>132769767</t>
+  </si>
+  <si>
+    <t>06/25/2012</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>Considering three families arrived at this hotel we all were extremely satisfied. We ate in the dinning room together. Afterwards half of us went to the exercise room the other half went to the pool.We had a blast.Thanks La Quinta.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r132644810-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>132644810</t>
+  </si>
+  <si>
+    <t>06/24/2012</t>
+  </si>
+  <si>
+    <t>For a brand new La Quinta, this location is already dirty and run down.</t>
+  </si>
+  <si>
+    <t>I always thought of La Quinta as a pretty safe bet for a last minute stay with my kids. Decided to stay the night in Glen Rose and got a room at the LQ Inn and Suites. I'll just run down the laundry list of complaints and you can decide for yourself. White comforter on bed looked like it had washed in bloodstains. Pool and hot tub water smelled so bad I would not let my kids swim, and we had been tubing muddy Brazos water all day. Bed was hard as a rock. Coffee maker was broken. Hot breakfast was a plate of sausage that was cold when we got down to the lobby. MoreShow less</t>
+  </si>
+  <si>
+    <t>I always thought of La Quinta as a pretty safe bet for a last minute stay with my kids. Decided to stay the night in Glen Rose and got a room at the LQ Inn and Suites. I'll just run down the laundry list of complaints and you can decide for yourself. White comforter on bed looked like it had washed in bloodstains. Pool and hot tub water smelled so bad I would not let my kids swim, and we had been tubing muddy Brazos water all day. Bed was hard as a rock. Coffee maker was broken. Hot breakfast was a plate of sausage that was cold when we got down to the lobby. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r131834166-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>131834166</t>
+  </si>
+  <si>
+    <t>06/12/2012</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>Check in was quick and easy.  The prices were reasonable.  I asked for the 2 rooms I reserved to be near each other- and they were. My only complaint was that the kids in the room above me were having a jump-a-thon but that isn't La Quinta's fault! For $89/night, the service, cleanliness and breakfast were above expectations.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r131619844-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>131619844</t>
+  </si>
+  <si>
+    <t>06/09/2012</t>
+  </si>
+  <si>
+    <t>A weekend with the dinosaurs and Fossil Rim</t>
+  </si>
+  <si>
+    <t>Just recently we had the chance to go with friends to Glen Rose, Tx.  We visited Fossil Rm and the Dinosaur State Park.  We stayed at the La Quinta Inn in Glen Rose.  I highly recommend this hotel.  The rooms were extra large and very comfortable and clean.  Also, they were very reasonably priced.  The staff was friendly and helpful.  They also served a very nice breakfast.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r131016466-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>131016466</t>
+  </si>
+  <si>
+    <t>05/31/2012</t>
+  </si>
+  <si>
+    <t>Love this place!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We contemplated renting a cabin but decided to stay here instead.  Sure glad we did.  The place is new and very clean.  Our room was much larger than most and we appreciated the indoor pool and hot tub.  We got a very reasonable rate online so we were so please with our stay.  Would highly recommend this La Quinta. </t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r130947745-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>130947745</t>
+  </si>
+  <si>
+    <t>05/30/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r130161912-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>130161912</t>
+  </si>
+  <si>
+    <t>05/18/2012</t>
+  </si>
+  <si>
+    <t>Exceptional Value</t>
+  </si>
+  <si>
+    <t>Clean, comfortable room, helpful staff, great value. Lovely place to stay, will stay here when we return to area for getaway.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r27872119-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>27872119</t>
+  </si>
+  <si>
+    <t>04/12/2009</t>
+  </si>
+  <si>
+    <t>Well done!</t>
+  </si>
+  <si>
+    <t>Completed in November of 2008 this property is basically brand new and it shows. Clearly in competition with the other chains of mid-level hotels sprouting up in Glen Rose and it appears La Quinta is jockeying for position there. Nicely appointed lobby complete with fireplace and sitting area. Front desk personnel are exceptional with customer service. Check in was a breeze and was greeting with “we have been expecting you.” We had a king bed, microwave, fridge, free high speed Internet access, in room coffeemaker, iron, and hairdryer. The room was clean as were the linens and towels. House keeping was very helpful when asked for additional items etc; although I do have one complaint about that department. If you are staying a couple of days and you happen to be in your room while house keeping is working on rooms along the hall near you. They pull the security slide-latch open to keep the door open while the come and go from the cleaning/supply cart. Well…they let the door slam against the security latch which, to me, is a very irritating and annoying BANG! Wouldn’t be so bad if it were only once or twice but it goes on many, many times for each and every room…You won’t sleep or get that nap you were thinking about. A nice touch I’m seeing in the newer La Quintas is hard wood entries and bathrooms. There is a 32” flat screen...Completed in November of 2008 this property is basically brand new and it shows. Clearly in competition with the other chains of mid-level hotels sprouting up in Glen Rose and it appears La Quinta is jockeying for position there. Nicely appointed lobby complete with fireplace and sitting area. Front desk personnel are exceptional with customer service. Check in was a breeze and was greeting with “we have been expecting you.” We had a king bed, microwave, fridge, free high speed Internet access, in room coffeemaker, iron, and hairdryer. The room was clean as were the linens and towels. House keeping was very helpful when asked for additional items etc; although I do have one complaint about that department. If you are staying a couple of days and you happen to be in your room while house keeping is working on rooms along the hall near you. They pull the security slide-latch open to keep the door open while the come and go from the cleaning/supply cart. Well…they let the door slam against the security latch which, to me, is a very irritating and annoying BANG! Wouldn’t be so bad if it were only once or twice but it goes on many, many times for each and every room…You won’t sleep or get that nap you were thinking about. A nice touch I’m seeing in the newer La Quintas is hard wood entries and bathrooms. There is a 32” flat screen LCD television with multiple stations and HBO. Breakfast is totally continental consisting of danishes, bagels, juices, coffee, teas, and the signature waffle. This location is the closest hotel to Dinosaurs Valley State Park. A must see when in Glen Rose. Restaurants we ate at were Donna K’s Catfish…yumm…yumm, fresh, good and abundant. North Hwy 144 a couple of miles. Hammonds BBQ, the real deal and delicious, don’t miss the home made pies in many varieties. Hwy 67 not far from La Quinta. On the fun side and to kick it old school is to head out 17 miles to Gandbury (Hwy 144) and check out the Brazos Drive In Theater. Established 1952 and has not closed since. Open Friday and Saturday nights only. Box office opens at 7:30pm. Movie time 8:30pm. A word of advice…arrive prior to 7:30pm to get in line as this is a popular place. I’ll defiantly stay at this La Quinta again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>Completed in November of 2008 this property is basically brand new and it shows. Clearly in competition with the other chains of mid-level hotels sprouting up in Glen Rose and it appears La Quinta is jockeying for position there. Nicely appointed lobby complete with fireplace and sitting area. Front desk personnel are exceptional with customer service. Check in was a breeze and was greeting with “we have been expecting you.” We had a king bed, microwave, fridge, free high speed Internet access, in room coffeemaker, iron, and hairdryer. The room was clean as were the linens and towels. House keeping was very helpful when asked for additional items etc; although I do have one complaint about that department. If you are staying a couple of days and you happen to be in your room while house keeping is working on rooms along the hall near you. They pull the security slide-latch open to keep the door open while the come and go from the cleaning/supply cart. Well…they let the door slam against the security latch which, to me, is a very irritating and annoying BANG! Wouldn’t be so bad if it were only once or twice but it goes on many, many times for each and every room…You won’t sleep or get that nap you were thinking about. A nice touch I’m seeing in the newer La Quintas is hard wood entries and bathrooms. There is a 32” flat screen...Completed in November of 2008 this property is basically brand new and it shows. Clearly in competition with the other chains of mid-level hotels sprouting up in Glen Rose and it appears La Quinta is jockeying for position there. Nicely appointed lobby complete with fireplace and sitting area. Front desk personnel are exceptional with customer service. Check in was a breeze and was greeting with “we have been expecting you.” We had a king bed, microwave, fridge, free high speed Internet access, in room coffeemaker, iron, and hairdryer. The room was clean as were the linens and towels. House keeping was very helpful when asked for additional items etc; although I do have one complaint about that department. If you are staying a couple of days and you happen to be in your room while house keeping is working on rooms along the hall near you. They pull the security slide-latch open to keep the door open while the come and go from the cleaning/supply cart. Well…they let the door slam against the security latch which, to me, is a very irritating and annoying BANG! Wouldn’t be so bad if it were only once or twice but it goes on many, many times for each and every room…You won’t sleep or get that nap you were thinking about. A nice touch I’m seeing in the newer La Quintas is hard wood entries and bathrooms. There is a 32” flat screen LCD television with multiple stations and HBO. Breakfast is totally continental consisting of danishes, bagels, juices, coffee, teas, and the signature waffle. This location is the closest hotel to Dinosaurs Valley State Park. A must see when in Glen Rose. Restaurants we ate at were Donna K’s Catfish…yumm…yumm, fresh, good and abundant. North Hwy 144 a couple of miles. Hammonds BBQ, the real deal and delicious, don’t miss the home made pies in many varieties. Hwy 67 not far from La Quinta. On the fun side and to kick it old school is to head out 17 miles to Gandbury (Hwy 144) and check out the Brazos Drive In Theater. Established 1952 and has not closed since. Open Friday and Saturday nights only. Box office opens at 7:30pm. Movie time 8:30pm. A word of advice…arrive prior to 7:30pm to get in line as this is a popular place. I’ll defiantly stay at this La Quinta again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r23961879-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>23961879</t>
+  </si>
+  <si>
+    <t>01/27/2009</t>
+  </si>
+  <si>
+    <t>Beautiful view from the room</t>
+  </si>
+  <si>
+    <t>I was in glen rose for a horse show...ended up staying at LaQuinta which was newly opened this is a beautiful hotel located on a hill top...The view was amazing I could see the town from my window...Loved heated pool and hot tub....very friendly people, great breakfast......</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r587437472-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>587437472</t>
+  </si>
+  <si>
+    <t>06/14/2018</t>
+  </si>
+  <si>
+    <t>Nice and clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every time on my business trip in Glen Rose,I stay at this location it’s my 3 or 4 time can’t remember for sure, good thing is front desk and the staff just do so good work I like there breakfast.  I love this place </t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r585902891-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>585902891</t>
+  </si>
+  <si>
+    <t>06/07/2018</t>
+  </si>
+  <si>
+    <t>Had a great stay the room smelt fresh and clean. The indoor pool had a nice hot tub that I took advantage of on my stay. Also the breakfast was perfect and I had a perfect view of the town. Will defiantly be returning keep up the great work guys.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r575035002-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>575035002</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t>Failed miserably in the details</t>
+  </si>
+  <si>
+    <t>The room was nice and updated and bed was comfortable.  Everything else is lacking.  The halls have nice carpeting, but the corners, and trim work is in bad shape.  We requested a roll away bed at check in and then had to call down for it 2 more times.  When it arrived, they said it was the last one, and had a broken leg so we had to put the mattress (which looked to be 15+ years old) on the ground.It is very clearly posted that the hotel is 100% smoke free.....but the employees were constantly standing at the entrance smoking....that ashtray was in dire need of being emptied.  We called down for an extra pillow for the roll away mattress - there were 4 pillows on the bed, but they were all so small that we each required 2.  We were told that the hotel was out of pillows????  Breakfast left much to be desired.  Our rate was $130/night.......$65 would have been more appropriate.  The rooms are very spacious and could easily accommodate a sofa, but a small chair is all that occupies that large space.  Decor was nice and Microwave/Fridge were handy.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>The room was nice and updated and bed was comfortable.  Everything else is lacking.  The halls have nice carpeting, but the corners, and trim work is in bad shape.  We requested a roll away bed at check in and then had to call down for it 2 more times.  When it arrived, they said it was the last one, and had a broken leg so we had to put the mattress (which looked to be 15+ years old) on the ground.It is very clearly posted that the hotel is 100% smoke free.....but the employees were constantly standing at the entrance smoking....that ashtray was in dire need of being emptied.  We called down for an extra pillow for the roll away mattress - there were 4 pillows on the bed, but they were all so small that we each required 2.  We were told that the hotel was out of pillows????  Breakfast left much to be desired.  Our rate was $130/night.......$65 would have been more appropriate.  The rooms are very spacious and could easily accommodate a sofa, but a small chair is all that occupies that large space.  Decor was nice and Microwave/Fridge were handy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r571302303-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>571302303</t>
+  </si>
+  <si>
+    <t>04/05/2018</t>
+  </si>
+  <si>
+    <t>Clean and dog-friendly</t>
+  </si>
+  <si>
+    <t>We stayed here for one night on a whim to check out Dinosaur Valley Park...because we are iffy on camping and it was supposed to rain through the night. The hotel was only a few miles from the park and was even closer to Big Rocks park where we spent just as much time playing and exploring. We had no complaints. It was a typical LA Quinta experience, which to me means a good value, clean, with a decent hot breakfast. The staff was also nice enough.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>We stayed here for one night on a whim to check out Dinosaur Valley Park...because we are iffy on camping and it was supposed to rain through the night. The hotel was only a few miles from the park and was even closer to Big Rocks park where we spent just as much time playing and exploring. We had no complaints. It was a typical LA Quinta experience, which to me means a good value, clean, with a decent hot breakfast. The staff was also nice enough.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r557909547-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>557909547</t>
+  </si>
+  <si>
+    <t>02/02/2018</t>
+  </si>
+  <si>
+    <t>Pool closed for the winter.</t>
+  </si>
+  <si>
+    <t>I had chosen this hotel and location because of the indoor pool and was disappointed when I learned at check in that it was closed for the winter.   This is a newer style LaQuinta with indoor corridors.  The entire property was very clean but furnishings are slightly worn.  Very comfortable bed and spacious room but a lack of easily accessible electrial plugs in the room itself and no usb ports at all.  Internet did work well.  Very friendly check in lady and staff at checkout.  Breakfast very good, with sausage and eggs and biscuits along with typical LaQuinta fare.We loved the maintainance man's friendly little dog. We would return to this propertyMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>I had chosen this hotel and location because of the indoor pool and was disappointed when I learned at check in that it was closed for the winter.   This is a newer style LaQuinta with indoor corridors.  The entire property was very clean but furnishings are slightly worn.  Very comfortable bed and spacious room but a lack of easily accessible electrial plugs in the room itself and no usb ports at all.  Internet did work well.  Very friendly check in lady and staff at checkout.  Breakfast very good, with sausage and eggs and biscuits along with typical LaQuinta fare.We loved the maintainance man's friendly little dog. We would return to this propertyMore</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2453,6801 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>60</v>
+      </c>
+      <c r="X4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>60</v>
+      </c>
+      <c r="X5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>91</v>
+      </c>
+      <c r="X7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>91</v>
+      </c>
+      <c r="X8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>91</v>
+      </c>
+      <c r="X9" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>114</v>
+      </c>
+      <c r="X10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>122</v>
+      </c>
+      <c r="X11" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>91</v>
+      </c>
+      <c r="X12" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" t="s">
+        <v>135</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>113</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>91</v>
+      </c>
+      <c r="X13" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K14" t="s">
+        <v>140</v>
+      </c>
+      <c r="L14" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>142</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>149</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" t="s">
+        <v>153</v>
+      </c>
+      <c r="L16" t="s">
+        <v>154</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>149</v>
+      </c>
+      <c r="O16" t="s">
+        <v>155</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>161</v>
+      </c>
+      <c r="O17" t="s">
+        <v>162</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>163</v>
+      </c>
+      <c r="X17" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>167</v>
+      </c>
+      <c r="J18" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" t="s">
+        <v>169</v>
+      </c>
+      <c r="L18" t="s">
+        <v>170</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>171</v>
+      </c>
+      <c r="O18" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19" t="s">
+        <v>174</v>
+      </c>
+      <c r="K19" t="s">
+        <v>175</v>
+      </c>
+      <c r="L19" t="s">
+        <v>176</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>171</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>178</v>
+      </c>
+      <c r="J20" t="s">
+        <v>179</v>
+      </c>
+      <c r="K20" t="s">
+        <v>180</v>
+      </c>
+      <c r="L20" t="s">
+        <v>181</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>182</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>184</v>
+      </c>
+      <c r="J21" t="s">
+        <v>185</v>
+      </c>
+      <c r="K21" t="s">
+        <v>186</v>
+      </c>
+      <c r="L21" t="s">
+        <v>187</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>188</v>
+      </c>
+      <c r="O21" t="s">
+        <v>162</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J22" t="s">
+        <v>191</v>
+      </c>
+      <c r="K22" t="s">
+        <v>192</v>
+      </c>
+      <c r="L22" t="s">
+        <v>193</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>188</v>
+      </c>
+      <c r="O22" t="s">
+        <v>162</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>195</v>
+      </c>
+      <c r="J23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K23" t="s">
+        <v>197</v>
+      </c>
+      <c r="L23" t="s">
+        <v>198</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>182</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>199</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>200</v>
+      </c>
+      <c r="J24" t="s">
+        <v>201</v>
+      </c>
+      <c r="K24" t="s">
+        <v>202</v>
+      </c>
+      <c r="L24" t="s">
+        <v>203</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>182</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>205</v>
+      </c>
+      <c r="J25" t="s">
+        <v>206</v>
+      </c>
+      <c r="K25" t="s">
+        <v>207</v>
+      </c>
+      <c r="L25" t="s">
+        <v>208</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>209</v>
+      </c>
+      <c r="O25" t="s">
+        <v>162</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>212</v>
+      </c>
+      <c r="J26" t="s">
+        <v>213</v>
+      </c>
+      <c r="K26" t="s">
+        <v>214</v>
+      </c>
+      <c r="L26" t="s">
+        <v>215</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>209</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>217</v>
+      </c>
+      <c r="J27" t="s">
+        <v>218</v>
+      </c>
+      <c r="K27" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" t="s">
+        <v>219</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>220</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>221</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>222</v>
+      </c>
+      <c r="J28" t="s">
+        <v>223</v>
+      </c>
+      <c r="K28" t="s">
+        <v>224</v>
+      </c>
+      <c r="L28" t="s">
+        <v>225</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>227</v>
+      </c>
+      <c r="J29" t="s">
+        <v>223</v>
+      </c>
+      <c r="K29" t="s">
+        <v>228</v>
+      </c>
+      <c r="L29" t="s">
+        <v>229</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>230</v>
+      </c>
+      <c r="O29" t="s">
+        <v>162</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>232</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>233</v>
+      </c>
+      <c r="J30" t="s">
+        <v>234</v>
+      </c>
+      <c r="K30" t="s">
+        <v>235</v>
+      </c>
+      <c r="L30" t="s">
+        <v>236</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>230</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>237</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>238</v>
+      </c>
+      <c r="J31" t="s">
+        <v>239</v>
+      </c>
+      <c r="K31" t="s">
+        <v>240</v>
+      </c>
+      <c r="L31" t="s">
+        <v>241</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>230</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>242</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>243</v>
+      </c>
+      <c r="J32" t="s">
+        <v>239</v>
+      </c>
+      <c r="K32" t="s">
+        <v>244</v>
+      </c>
+      <c r="L32" t="s">
+        <v>245</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>230</v>
+      </c>
+      <c r="O32" t="s">
+        <v>74</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>247</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>248</v>
+      </c>
+      <c r="J33" t="s">
+        <v>249</v>
+      </c>
+      <c r="K33" t="s">
+        <v>250</v>
+      </c>
+      <c r="L33" t="s">
+        <v>251</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>252</v>
+      </c>
+      <c r="O33" t="s">
+        <v>253</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>254</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>255</v>
+      </c>
+      <c r="J34" t="s">
+        <v>256</v>
+      </c>
+      <c r="K34" t="s">
+        <v>257</v>
+      </c>
+      <c r="L34" t="s">
+        <v>258</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>252</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>260</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>261</v>
+      </c>
+      <c r="J35" t="s">
+        <v>262</v>
+      </c>
+      <c r="K35" t="s">
+        <v>263</v>
+      </c>
+      <c r="L35" t="s">
+        <v>264</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>265</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>266</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>267</v>
+      </c>
+      <c r="J36" t="s">
+        <v>268</v>
+      </c>
+      <c r="K36" t="s">
+        <v>269</v>
+      </c>
+      <c r="L36" t="s">
+        <v>270</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>265</v>
+      </c>
+      <c r="O36" t="s">
+        <v>155</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>272</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>273</v>
+      </c>
+      <c r="J37" t="s">
+        <v>274</v>
+      </c>
+      <c r="K37" t="s">
+        <v>275</v>
+      </c>
+      <c r="L37" t="s">
+        <v>276</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>265</v>
+      </c>
+      <c r="O37" t="s">
+        <v>74</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>277</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>278</v>
+      </c>
+      <c r="J38" t="s"/>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s"/>
+      <c r="M38" t="s"/>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>279</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>280</v>
+      </c>
+      <c r="J39" t="s">
+        <v>281</v>
+      </c>
+      <c r="K39" t="s">
+        <v>282</v>
+      </c>
+      <c r="L39" t="s">
+        <v>283</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>284</v>
+      </c>
+      <c r="O39" t="s">
+        <v>155</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>286</v>
+      </c>
+      <c r="J40" t="s">
+        <v>287</v>
+      </c>
+      <c r="K40" t="s">
+        <v>288</v>
+      </c>
+      <c r="L40" t="s">
+        <v>289</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>284</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>291</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>292</v>
+      </c>
+      <c r="J41" t="s">
+        <v>293</v>
+      </c>
+      <c r="K41" t="s">
+        <v>294</v>
+      </c>
+      <c r="L41" t="s">
+        <v>295</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>284</v>
+      </c>
+      <c r="O41" t="s">
+        <v>74</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>297</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>298</v>
+      </c>
+      <c r="J42" t="s">
+        <v>299</v>
+      </c>
+      <c r="K42" t="s">
+        <v>300</v>
+      </c>
+      <c r="L42" t="s">
+        <v>301</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>302</v>
+      </c>
+      <c r="O42" t="s">
+        <v>74</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>304</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>305</v>
+      </c>
+      <c r="J43" t="s">
+        <v>306</v>
+      </c>
+      <c r="K43" t="s">
+        <v>307</v>
+      </c>
+      <c r="L43" t="s">
+        <v>308</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>302</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>310</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>311</v>
+      </c>
+      <c r="J44" t="s">
+        <v>306</v>
+      </c>
+      <c r="K44" t="s">
+        <v>312</v>
+      </c>
+      <c r="L44" t="s">
+        <v>313</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>302</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>315</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>316</v>
+      </c>
+      <c r="J45" t="s">
+        <v>317</v>
+      </c>
+      <c r="K45" t="s">
+        <v>318</v>
+      </c>
+      <c r="L45" t="s">
+        <v>319</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>302</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>321</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>322</v>
+      </c>
+      <c r="J46" t="s">
+        <v>323</v>
+      </c>
+      <c r="K46" t="s">
+        <v>324</v>
+      </c>
+      <c r="L46" t="s">
+        <v>325</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>302</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>327</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>328</v>
+      </c>
+      <c r="J47" t="s">
+        <v>329</v>
+      </c>
+      <c r="K47" t="s">
+        <v>330</v>
+      </c>
+      <c r="L47" t="s">
+        <v>331</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>332</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>334</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>335</v>
+      </c>
+      <c r="J48" t="s">
+        <v>336</v>
+      </c>
+      <c r="K48" t="s">
+        <v>337</v>
+      </c>
+      <c r="L48" t="s">
+        <v>338</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>339</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>341</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>342</v>
+      </c>
+      <c r="J49" t="s">
+        <v>343</v>
+      </c>
+      <c r="K49" t="s">
+        <v>344</v>
+      </c>
+      <c r="L49" t="s">
+        <v>345</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>346</v>
+      </c>
+      <c r="O49" t="s">
+        <v>74</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>348</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>349</v>
+      </c>
+      <c r="J50" t="s">
+        <v>350</v>
+      </c>
+      <c r="K50" t="s">
+        <v>351</v>
+      </c>
+      <c r="L50" t="s">
+        <v>352</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>339</v>
+      </c>
+      <c r="O50" t="s">
+        <v>253</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>354</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>355</v>
+      </c>
+      <c r="J51" t="s">
+        <v>356</v>
+      </c>
+      <c r="K51" t="s">
+        <v>357</v>
+      </c>
+      <c r="L51" t="s">
+        <v>358</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>359</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>360</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>361</v>
+      </c>
+      <c r="J52" t="s">
+        <v>362</v>
+      </c>
+      <c r="K52" t="s">
+        <v>363</v>
+      </c>
+      <c r="L52" t="s">
+        <v>364</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>359</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>365</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>366</v>
+      </c>
+      <c r="J53" t="s">
+        <v>367</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>368</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>369</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>370</v>
+      </c>
+      <c r="J54" t="s">
+        <v>371</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>368</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>372</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>373</v>
+      </c>
+      <c r="J55" t="s">
+        <v>374</v>
+      </c>
+      <c r="K55" t="s">
+        <v>375</v>
+      </c>
+      <c r="L55" t="s">
+        <v>376</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>368</v>
+      </c>
+      <c r="O55" t="s">
+        <v>162</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>377</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>378</v>
+      </c>
+      <c r="J56" t="s">
+        <v>379</v>
+      </c>
+      <c r="K56" t="s">
+        <v>380</v>
+      </c>
+      <c r="L56" t="s">
+        <v>381</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>368</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>382</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>383</v>
+      </c>
+      <c r="J57" t="s">
+        <v>384</v>
+      </c>
+      <c r="K57" t="s">
+        <v>385</v>
+      </c>
+      <c r="L57" t="s">
+        <v>386</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>387</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>388</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>389</v>
+      </c>
+      <c r="J58" t="s">
+        <v>390</v>
+      </c>
+      <c r="K58" t="s">
+        <v>391</v>
+      </c>
+      <c r="L58" t="s">
+        <v>392</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>387</v>
+      </c>
+      <c r="O58" t="s">
+        <v>162</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>393</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>394</v>
+      </c>
+      <c r="J59" t="s">
+        <v>395</v>
+      </c>
+      <c r="K59" t="s">
+        <v>396</v>
+      </c>
+      <c r="L59" t="s">
+        <v>397</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>387</v>
+      </c>
+      <c r="O59" t="s">
+        <v>162</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>398</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>399</v>
+      </c>
+      <c r="J60" t="s">
+        <v>400</v>
+      </c>
+      <c r="K60" t="s">
+        <v>401</v>
+      </c>
+      <c r="L60" t="s">
+        <v>402</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>403</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>404</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>405</v>
+      </c>
+      <c r="J61" t="s">
+        <v>406</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>403</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>407</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>408</v>
+      </c>
+      <c r="J62" t="s">
+        <v>406</v>
+      </c>
+      <c r="K62" t="s">
+        <v>409</v>
+      </c>
+      <c r="L62" t="s">
+        <v>410</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>403</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>411</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>412</v>
+      </c>
+      <c r="J63" t="s">
+        <v>413</v>
+      </c>
+      <c r="K63" t="s">
+        <v>414</v>
+      </c>
+      <c r="L63" t="s">
+        <v>415</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>416</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>417</v>
+      </c>
+      <c r="J64" t="s">
+        <v>418</v>
+      </c>
+      <c r="K64" t="s">
+        <v>419</v>
+      </c>
+      <c r="L64" t="s">
+        <v>420</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>421</v>
+      </c>
+      <c r="O64" t="s">
+        <v>162</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>422</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>423</v>
+      </c>
+      <c r="J65" t="s">
+        <v>424</v>
+      </c>
+      <c r="K65" t="s">
+        <v>425</v>
+      </c>
+      <c r="L65" t="s">
+        <v>426</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>421</v>
+      </c>
+      <c r="O65" t="s">
+        <v>74</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>428</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>429</v>
+      </c>
+      <c r="J66" t="s">
+        <v>430</v>
+      </c>
+      <c r="K66" t="s">
+        <v>431</v>
+      </c>
+      <c r="L66" t="s">
+        <v>432</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>433</v>
+      </c>
+      <c r="O66" t="s">
+        <v>253</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>434</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>435</v>
+      </c>
+      <c r="J67" t="s">
+        <v>436</v>
+      </c>
+      <c r="K67" t="s">
+        <v>437</v>
+      </c>
+      <c r="L67" t="s">
+        <v>438</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>439</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>440</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>441</v>
+      </c>
+      <c r="J68" t="s">
+        <v>442</v>
+      </c>
+      <c r="K68" t="s">
+        <v>431</v>
+      </c>
+      <c r="L68" t="s">
+        <v>443</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>439</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>444</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>445</v>
+      </c>
+      <c r="J69" t="s">
+        <v>446</v>
+      </c>
+      <c r="K69" t="s">
+        <v>447</v>
+      </c>
+      <c r="L69" t="s">
+        <v>448</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>439</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>449</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>450</v>
+      </c>
+      <c r="J70" t="s">
+        <v>451</v>
+      </c>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s"/>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>452</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>453</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>454</v>
+      </c>
+      <c r="J71" t="s">
+        <v>455</v>
+      </c>
+      <c r="K71" t="s">
+        <v>456</v>
+      </c>
+      <c r="L71" t="s">
+        <v>457</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>452</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>458</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>459</v>
+      </c>
+      <c r="J72" t="s">
+        <v>460</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s"/>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>461</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>462</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>463</v>
+      </c>
+      <c r="J73" t="s">
+        <v>464</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s"/>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>461</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>465</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>466</v>
+      </c>
+      <c r="J74" t="s">
+        <v>467</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s"/>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>461</v>
+      </c>
+      <c r="O74" t="s">
+        <v>162</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>468</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>469</v>
+      </c>
+      <c r="J75" t="s">
+        <v>470</v>
+      </c>
+      <c r="K75" t="s">
+        <v>471</v>
+      </c>
+      <c r="L75" t="s">
+        <v>472</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>461</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>473</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>474</v>
+      </c>
+      <c r="J76" t="s">
+        <v>475</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s"/>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>476</v>
+      </c>
+      <c r="O76" t="s">
+        <v>253</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>477</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>478</v>
+      </c>
+      <c r="J77" t="s">
+        <v>479</v>
+      </c>
+      <c r="K77" t="s">
+        <v>480</v>
+      </c>
+      <c r="L77" t="s">
+        <v>481</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>482</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>483</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>484</v>
+      </c>
+      <c r="J78" t="s">
+        <v>485</v>
+      </c>
+      <c r="K78" t="s"/>
+      <c r="L78" t="s"/>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>482</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>486</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>487</v>
+      </c>
+      <c r="J79" t="s">
+        <v>488</v>
+      </c>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s"/>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>489</v>
+      </c>
+      <c r="O79" t="s">
+        <v>155</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>490</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>491</v>
+      </c>
+      <c r="J80" t="s">
+        <v>492</v>
+      </c>
+      <c r="K80" t="s">
+        <v>493</v>
+      </c>
+      <c r="L80" t="s">
+        <v>494</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>495</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>496</v>
+      </c>
+      <c r="J81" t="s">
+        <v>492</v>
+      </c>
+      <c r="K81" t="s">
+        <v>497</v>
+      </c>
+      <c r="L81" t="s">
+        <v>498</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>489</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>499</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>500</v>
+      </c>
+      <c r="J82" t="s">
+        <v>501</v>
+      </c>
+      <c r="K82" t="s">
+        <v>502</v>
+      </c>
+      <c r="L82" t="s">
+        <v>503</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>504</v>
+      </c>
+      <c r="O82" t="s">
+        <v>162</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>505</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>506</v>
+      </c>
+      <c r="J83" t="s">
+        <v>507</v>
+      </c>
+      <c r="K83" t="s">
+        <v>508</v>
+      </c>
+      <c r="L83" t="s">
+        <v>509</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>510</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>511</v>
+      </c>
+      <c r="J84" t="s">
+        <v>512</v>
+      </c>
+      <c r="K84" t="s"/>
+      <c r="L84" t="s"/>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>513</v>
+      </c>
+      <c r="O84" t="s">
+        <v>155</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>514</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>515</v>
+      </c>
+      <c r="J85" t="s">
+        <v>516</v>
+      </c>
+      <c r="K85" t="s">
+        <v>517</v>
+      </c>
+      <c r="L85" t="s">
+        <v>518</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>513</v>
+      </c>
+      <c r="O85" t="s">
+        <v>74</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>520</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>521</v>
+      </c>
+      <c r="J86" t="s">
+        <v>522</v>
+      </c>
+      <c r="K86" t="s">
+        <v>523</v>
+      </c>
+      <c r="L86" t="s">
+        <v>524</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>513</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>525</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>526</v>
+      </c>
+      <c r="J87" t="s">
+        <v>527</v>
+      </c>
+      <c r="K87" t="s">
+        <v>528</v>
+      </c>
+      <c r="L87" t="s">
+        <v>529</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>530</v>
+      </c>
+      <c r="O87" t="s">
+        <v>162</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>531</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>532</v>
+      </c>
+      <c r="J88" t="s">
+        <v>533</v>
+      </c>
+      <c r="K88" t="s"/>
+      <c r="L88" t="s"/>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>534</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>535</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>536</v>
+      </c>
+      <c r="J89" t="s">
+        <v>537</v>
+      </c>
+      <c r="K89" t="s">
+        <v>538</v>
+      </c>
+      <c r="L89" t="s">
+        <v>539</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>541</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>542</v>
+      </c>
+      <c r="J90" t="s">
+        <v>537</v>
+      </c>
+      <c r="K90" t="s">
+        <v>543</v>
+      </c>
+      <c r="L90" t="s">
+        <v>544</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>545</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>546</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>547</v>
+      </c>
+      <c r="J91" t="s">
+        <v>548</v>
+      </c>
+      <c r="K91" t="s">
+        <v>549</v>
+      </c>
+      <c r="L91" t="s">
+        <v>550</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="s">
+        <v>545</v>
+      </c>
+      <c r="O91" t="s">
+        <v>74</v>
+      </c>
+      <c r="P91" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>2</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2</v>
+      </c>
+      <c r="S91" t="n">
+        <v>2</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>2</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>551</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>552</v>
+      </c>
+      <c r="J92" t="s">
+        <v>553</v>
+      </c>
+      <c r="K92" t="s"/>
+      <c r="L92" t="s"/>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>545</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>554</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>555</v>
+      </c>
+      <c r="J93" t="s">
+        <v>556</v>
+      </c>
+      <c r="K93" t="s"/>
+      <c r="L93" t="s"/>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>545</v>
+      </c>
+      <c r="O93" t="s">
+        <v>162</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>557</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>558</v>
+      </c>
+      <c r="J94" t="s">
+        <v>556</v>
+      </c>
+      <c r="K94" t="s">
+        <v>559</v>
+      </c>
+      <c r="L94" t="s">
+        <v>560</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>561</v>
+      </c>
+      <c r="O94" t="s">
+        <v>155</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>562</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>563</v>
+      </c>
+      <c r="J95" t="s">
+        <v>564</v>
+      </c>
+      <c r="K95" t="s">
+        <v>565</v>
+      </c>
+      <c r="L95" t="s">
+        <v>566</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>561</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>567</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>568</v>
+      </c>
+      <c r="J96" t="s">
+        <v>569</v>
+      </c>
+      <c r="K96" t="s">
+        <v>570</v>
+      </c>
+      <c r="L96" t="s">
+        <v>571</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>2</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>1</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>2</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>573</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>574</v>
+      </c>
+      <c r="J97" t="s">
+        <v>575</v>
+      </c>
+      <c r="K97" t="s">
+        <v>576</v>
+      </c>
+      <c r="L97" t="s">
+        <v>577</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>561</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>578</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>579</v>
+      </c>
+      <c r="J98" t="s">
+        <v>580</v>
+      </c>
+      <c r="K98" t="s">
+        <v>581</v>
+      </c>
+      <c r="L98" t="s">
+        <v>582</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>561</v>
+      </c>
+      <c r="O98" t="s">
+        <v>155</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>583</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>584</v>
+      </c>
+      <c r="J99" t="s">
+        <v>585</v>
+      </c>
+      <c r="K99" t="s">
+        <v>586</v>
+      </c>
+      <c r="L99" t="s">
+        <v>587</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>588</v>
+      </c>
+      <c r="O99" t="s">
+        <v>74</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>589</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>590</v>
+      </c>
+      <c r="J100" t="s">
+        <v>591</v>
+      </c>
+      <c r="K100" t="s"/>
+      <c r="L100" t="s"/>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>588</v>
+      </c>
+      <c r="O100" t="s">
+        <v>155</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>592</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>593</v>
+      </c>
+      <c r="J101" t="s">
+        <v>594</v>
+      </c>
+      <c r="K101" t="s">
+        <v>595</v>
+      </c>
+      <c r="L101" t="s">
+        <v>596</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>588</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>597</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>598</v>
+      </c>
+      <c r="J102" t="s">
+        <v>599</v>
+      </c>
+      <c r="K102" t="s">
+        <v>600</v>
+      </c>
+      <c r="L102" t="s">
+        <v>601</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>602</v>
+      </c>
+      <c r="O102" t="s">
+        <v>74</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>604</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>605</v>
+      </c>
+      <c r="J103" t="s">
+        <v>606</v>
+      </c>
+      <c r="K103" t="s">
+        <v>607</v>
+      </c>
+      <c r="L103" t="s">
+        <v>608</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>609</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>610</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>611</v>
+      </c>
+      <c r="J104" t="s">
+        <v>612</v>
+      </c>
+      <c r="K104" t="s">
+        <v>613</v>
+      </c>
+      <c r="L104" t="s">
+        <v>614</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>615</v>
+      </c>
+      <c r="O104" t="s">
+        <v>162</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>616</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>617</v>
+      </c>
+      <c r="J105" t="s">
+        <v>618</v>
+      </c>
+      <c r="K105" t="s">
+        <v>57</v>
+      </c>
+      <c r="L105" t="s">
+        <v>619</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>615</v>
+      </c>
+      <c r="O105" t="s">
+        <v>253</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>620</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>621</v>
+      </c>
+      <c r="J106" t="s">
+        <v>622</v>
+      </c>
+      <c r="K106" t="s">
+        <v>623</v>
+      </c>
+      <c r="L106" t="s">
+        <v>624</v>
+      </c>
+      <c r="M106" t="n">
+        <v>2</v>
+      </c>
+      <c r="N106" t="s">
+        <v>625</v>
+      </c>
+      <c r="O106" t="s">
+        <v>53</v>
+      </c>
+      <c r="P106" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="n">
+        <v>4</v>
+      </c>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>1</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>60</v>
+      </c>
+      <c r="X106" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>627</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>628</v>
+      </c>
+      <c r="J107" t="s">
+        <v>629</v>
+      </c>
+      <c r="K107" t="s">
+        <v>630</v>
+      </c>
+      <c r="L107" t="s">
+        <v>631</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4</v>
+      </c>
+      <c r="N107" t="s">
+        <v>632</v>
+      </c>
+      <c r="O107" t="s">
+        <v>53</v>
+      </c>
+      <c r="P107" t="s"/>
+      <c r="Q107" t="n">
+        <v>4</v>
+      </c>
+      <c r="R107" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" t="s"/>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>3</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>60</v>
+      </c>
+      <c r="X107" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>58446</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>634</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>635</v>
+      </c>
+      <c r="J108" t="s">
+        <v>636</v>
+      </c>
+      <c r="K108" t="s">
+        <v>637</v>
+      </c>
+      <c r="L108" t="s">
+        <v>638</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>639</v>
+      </c>
+      <c r="O108" t="s">
+        <v>74</v>
+      </c>
+      <c r="P108" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q108" t="s"/>
+      <c r="R108" t="s"/>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>60</v>
+      </c>
+      <c r="X108" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>640</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_511.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_511.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="733">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Angela N</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>paulmB1351PE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r545191803-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>this hotel was one of the best we have stayed in last 6 months my kids enjoyed over there they loved there Texas shape waffle maker we don't stay too far from glen rose but my kids are great dinosaur lovers we take them over there offend we will stay at this place again for sure great staff, nice foodMore</t>
   </si>
   <si>
+    <t>travelingAggie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r543193591-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>We stayed here 1 night after visiting Dinosaur Valley State Park and Fossil Ridge Wildlife Park. Everything seemed clean and updated to me. We got a fair price on the king suite with the pullout sofa bed. We needed sheets for the pullout sofa bed and the front desk gave them to us right away with some extra towels too. The kids loved the pool and hot tub and both appeared clean to me. The breakfast was fine and everyone found something that they wanted to eat. The internet speed was acceptable and I could stream Netflix to my iPad. We had dinner at Azteca Mexican restaurant across the street.More</t>
   </si>
   <si>
+    <t>SnSNeal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r539719424-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t>I'm excited to get to go back the staff are wonderful friendly and very helpful. The breakfast was great and the rooms are big and clean. Thank you for a wonderful experience! I look forward to the next time I get to stay!More</t>
   </si>
   <si>
+    <t>692vestam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r508140124-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>I have stayed at this hotel several times over the last three years. The staff at this location are great. Very friendly, helpful and efficient. They are the only reason I booked at this hotel again, after my previous visit I had decided to use a different hotel due to the conditions at this location. The hotel has deteriorated quite a bit. The carpeting in the public areas is disgusting. Our rooms have always been clean as far the bathrooms, dusting and so on. What is not clean is the stained carpeting, furniture and linens. I do not believe this is a "housekeeping" issue. The hotel is in great need of some TLC.More</t>
   </si>
   <si>
+    <t>kai1932</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r484907212-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -300,6 +318,9 @@
     <t>The room was clean, well-maintained and up-to-date.  The breakfast was more than adequate.  I can't stress enough how much we enjoyed this hotel.  The other hotel we stayed at on our trip, for the same price, was far from this quality.  Had we known where we were going, we could have walked to the historic town square that's basically right across the street and down a few blocks  Dinosaur Valley State park is an easy drive and a great place to visit.More</t>
   </si>
   <si>
+    <t>Dave S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r484743621-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -321,6 +342,9 @@
     <t>This hotel is newer and very well managed.  It is within a 5 mile radius to all the most popular attractions.  The property is quiet and clean with a very accommodating staff.  It has an indoor pool and spa, workout room, business center and breakfast center.  The breakfast is not just the awful international breakfast either.  It is actually real Texas style eats.More</t>
   </si>
   <si>
+    <t>Devidence</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r478042934-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -342,6 +366,9 @@
     <t>Recently stayed for two nights on our first family trip to Glen Rose. Friendly staff (especially the morning shift), comfortable room, nice facility, and great breakfast. Two downsides; the indoor pool is a unique feature here, however both it and the hot tub would benefit from standard maintenance and cleaning. Also the WiFi was barely serviceable from the room. Otherwise it meets or exceeds expectations for La Quinta properties. More</t>
   </si>
   <si>
+    <t>Jana R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r474386385-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -369,6 +396,9 @@
     <t>We mainly stayed here (as opposed to other hotels in area) so our kids could use indoor pool, and it seemed dirty.  A little green and cloudy.  Breakfast was terrible.  Shower head missing.  Everything else was just okay.  More</t>
   </si>
   <si>
+    <t>Skip_N_Bud</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r473465888-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -393,6 +423,9 @@
     <t>We called this property to make reservations a couple days before our visit and reserved a first floor room. The person taking the reservation was very cordial and said she would take care of it.  Arrived about 2:30 the day of the reservation to meet an unfriendly clerk with little or no hospitality skills. She told me they had us in a second floor. I told her about my request for a first floor room; she said she'd need to check with a manager; she came back in a few minutes and said nothing could be done. Cancelled reservation and left for another property in town. Enjoyed our stay in Glen Rose and look forward to our next visit, but will not stay at this property.More</t>
   </si>
   <si>
+    <t>caffattack</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r469345828-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -411,6 +444,9 @@
     <t>Stayed here for 4 nights for wedding,Just under 2 hours from Dallas Forth Worth airport with traffic,Staff were very helpful throughout the stay with lovely cookies at the reception,rooms were very big and comfortable and shower was excellent,the free breakfast in the morning was nice touch,pool was a wierd colour but jacuzzi was good.Town is nice quiet place with some nice attractions and chachi's Mexican restaurant was fantastic,Parking was excellent ,had a very nice stay.More</t>
   </si>
   <si>
+    <t>lilbruingirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r466411311-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -429,6 +465,9 @@
     <t>More of a 2.5 star visit.  The staff was friendly and accommodating, the rooms were for the most part clean (we only stayed one night), and the breakfast was basic, but good.  Good proximity to town center, Fossil Rim, and Dinosaur Valley.The cons, and probably why I wouldn't stay here again:1. Super thin walls.  Our neighbors checked in at 11 pm and I could hear them as if they were in my room.  Every little thing.  I could even hear the dialogue from the tv show they were watching until I finally caved and called the front desk at 1 am.  They were very kind and walked over to the room to ask them to turn it down.  After then it was only background noise until about 2:30 am.  But again, I could hear all the doors slam shut in the morning as people made their way to breakfast/ check-out, etc.2. The stopper was broken in our bath tub.  No big deal, except I was greeted with a tub filled with now cold water (with some hair floating in it).More</t>
   </si>
   <si>
+    <t>princessebird</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r458968141-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -450,6 +489,9 @@
     <t>We decided to go to Glen Rose last minute when the weather looked to be good for the weekend. We went to the site where you say how much you're willing to pay, and we got a good deal for this hotel. There's a lot going for this LaQuinta. It is conveniently located to the usual attractions. The rooms were nicely decorated, especially for a hotel of this category. The bathrooms had dark tile and the entry was wood. I appreciated the fridge and the microwave in the room. Although we could hear people above us, we didn't hear much from the hallway, and we were directly across from the elevator. My daughter loved the pool, and it was nice to have an indoor swim in February.I'll give the beds a push. I thought they were highly uncomfortable, but my husband thought they were comfortable. The downside was breakfast, which I think was below par. Breakfast was served from 6:30-9:30. We were there from 8:15 to 8:45, and for the entirety of that time there was no coffee or butter. No coffee? Guests were generally polite about it, but several were clearly annoyed. If we got another deal on the hotel, we would happily stay again. But we would bring our own breakfast.More</t>
   </si>
   <si>
+    <t>dallas61</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r454800283-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -468,6 +510,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>2cool4theroom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r450547413-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -486,6 +531,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>rburns38</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r381515133-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -516,6 +564,9 @@
     <t>This has to be the worst hotel, for the price.  Let's start either the shower, slow draining, mold on the shower curtain. The room has a smell of some water damage. The Ac has a mildew smell. Usually there is soft and hard pillows, not here, all soft.  Will not stay at this hotel again!!!More</t>
   </si>
   <si>
+    <t>Jannan L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r378203600-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -534,6 +585,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Lynn T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r371584060-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -549,6 +603,9 @@
     <t>Our Room was on the 3d floor, great view Exec. King with breakfast, We have never had a bad night here.  Service is always excellent and any request made has an immediate response.  We will book again next May with out a doubt.</t>
   </si>
   <si>
+    <t>Nancy J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r364903931-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -567,6 +624,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>SnargyBoy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r361993363-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -585,6 +645,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Sara B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r361540405-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -600,6 +663,9 @@
     <t>I spoke with a Tracy at the reservation desk to help me make special arrangements on a sold out night at the hotel. Tracy was polite and professional understanding my concerns and was willing to do whatever was necessary to make sure when the large group arrived , she had done everything she could to handle my special requests. She called me back to keep me up to date and was truly interested in making sure my needs were met. 5 STAR CUSTOMER SERVICE to Tracy! Thank you for taking care of my kiddos ; - )!</t>
   </si>
   <si>
+    <t>Barry W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r356385542-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -615,6 +681,9 @@
     <t>Average accommodations. Pretty much what you expect.  A half way comfortable bed with weird pillows. It took  the A/C most of the day to cool off the room. The indoor pool is a plus and the free continental breakfast actually has eggs, sausage, and biscuits with gravy. But the internet is so very slow so if you go for business...DON'T.</t>
   </si>
   <si>
+    <t>Nancy E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r355736872-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -630,6 +699,9 @@
     <t>Room clean, breakfast varied and good enough.  Coffee as decent. However, bed is very hard and uncomfortable, couldn't sleep.  Pool water cloudy and hot tub water was dirty.  Glen rose is a small town in Texas near the Dinosaur Valley state park</t>
   </si>
   <si>
+    <t>shauna_lu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r341212364-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -651,6 +723,9 @@
     <t>I was quoted a rate of $79/room by 2 hotel reservationists within a 24 hour period, however, when I requested to reserve a block of 10 rooms for an upcoming event, I was told that the rate was $89 (by the same reservationist who stated 60 seconds earlier that the rate was $79). When I politely questioned the rate increase, I was told that individuals from my party could 'take a chance that the rooms wouldn't fill up' and individually call and receive the lower rate but that the hotel charges more for blocked rooms. I have never experienced a block rate being more than a regular rate! When I questioned this again, the reservationist advised me that there are other hotels in the area that were cheaper and 'maybe you should call them instead.' I was stunned! I politely told her we would take our business elsewhere. I booked a 10 room block at the Quality Inn down the road for $79/room.More</t>
   </si>
   <si>
+    <t>kmthomas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r341062373-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -666,6 +741,9 @@
     <t>Our recent stay at the Glen Rose La Quinta was quite enjoyable.  Our room was spacious, clean and comfortable.  Breakfast was good and the breakfast area was exceptionally clean.  The staff at this location were courteous and friendly.  In addition, the indoor pool was a nice way to keep our kiddos entertained on a cold January afternoon.  We will definitely stay here again the next time we are in the area.</t>
   </si>
   <si>
+    <t>Dana M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r295891931-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -681,6 +759,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Texan34</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r295138102-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -696,6 +777,9 @@
     <t>Nearly fifty members and three dogs called this beautifully decorated hotel home for the weekend. The staff was very accommodating and a pleasure to work with.  We most definitely would recommend for anyone if they are in the area of Glen Rose.</t>
   </si>
   <si>
+    <t>JIMMY P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r294974110-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -714,6 +798,9 @@
     <t>I found our room to be clean, but I went to my sister-in-laws room and found a dead bug, it was a cricket.  I also found some yucking pink stuff on the nightstand.  Yuk and gross were the words me and my sister-in-law used.  It was also a meeting of types and on the second day, they gave our meeting room away even though we should have had it.  We ended up first meeting in the breakfast area, but people were late getting finished and it was loud.  So we ended up putting about 16 people in one of our rooms for the rest of the meeting.  We did ok, but tight fit.More</t>
   </si>
   <si>
+    <t>134vickieh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r291947475-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -729,6 +816,9 @@
     <t>Great place to stay. We  really enjoyed the indoor pool in the Texas July 4th weather. Pool area was very well stocked with towels no matter what time we went. Rooms were very clean and the staff was very courteous and helpful. Would definitely stay there again.</t>
   </si>
   <si>
+    <t>Lea F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r286231150-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -744,6 +834,9 @@
     <t>Very clean room, comfortable beds.  The hotel decor in the lobby is all dinosaur themed which was pretty neat.  The breakfast was very good.  The spa and pool were relaxing after driving all day.  We had no complaints about this hotel.</t>
   </si>
   <si>
+    <t>Joey B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r286036379-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -759,6 +852,9 @@
     <t>The staff is really friendly, breakfast was great.  Eggs, bisquit and gravy, waffles, etc.  One of the best hotel breakfast I have had.The room was nice, with a couch and high ceilings.  The biggest problem was that we could hear the people above us walking around and the floor creaked above our bed.  I am not sure this is the fault of the hotel.  The front desk did contact the people and got them to quieten down.   The first night there seemed to be small children jumping off the bed.  Like I said, that is not the hotel's fault and they did contact them to get them to make it stop.The biggest problem was the bed was too firm for our liking.  Our hips hurt in the morning and were not able to get a full night's sleep.More</t>
   </si>
   <si>
+    <t>David S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r280278952-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -780,6 +876,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>SantaClausHouston_TX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r278851695-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -798,6 +897,9 @@
     <t>Great LQ hotel.  We had connecting rooms - one 2 room suite and one regular King, both located at the end of the hall as suites are usually on the ends.  Our dog loved to go back and forth between the three rooms!  Elevator was in middle so no prob with that.  Comfy, and clean with great A/C!   Breakfast was basic, but good.  Pool was nice but could use a deeper cleaning on the tile.  What stood out for me at this LQ location (been to a bunch of them too!) was that in the pool area there is a wall phone over the towel stand.  Next to it is a sign with bold type that says something like "Emergency? Call 911 - you are at the Glen Rose La Quinta ...." and included the address and I think a call back number.  I have never seen this before, let alone a phone on the wall.    Very impressive.More</t>
   </si>
   <si>
+    <t>Linda S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r277241576-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -816,6 +918,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>travelTLee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r274852311-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -834,6 +939,9 @@
     <t>Nice, clean and updated, free wi-fi, free breakfast.  We stayed on a  busy holiday weekend, but the desk was organized and ready for us.  Our keys ready to go and there was very little wait at check in even though there was a constant stream of people.  This hotel is GREAT location if you intend to see The Promise, go to Fossil Rim or the Dinosaur Park.  Additionally Grandbury is only 20 min. away.   I loved that I didn't have to worry about feeling out of place because I had a dog, there were several other dogs staying on the property as well.  My only complaint is that our door (Room 319) kept sticking and we had to literally kick in the door every time we entered the room. The front desk didn't seem to think it was a big deal and didn't make an attempt to have it repaired while we were there.  I would stay here again no problem.More</t>
   </si>
   <si>
+    <t>Jim M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r274448594-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -855,6 +963,9 @@
     <t>269784493</t>
   </si>
   <si>
+    <t>Loretta A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r269707856-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -873,6 +984,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Jessica R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r265950932-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -891,6 +1005,9 @@
     <t>After calling many times to make sure the pool and hot tub would be good for my daughter's birthday and being told yes it would, they decided to resurface the hot tub the second day we were there. The pool ,although heated, was ice cold. We were upset so the owner agreed to refund 50% of our stay at check out. Upon check out, we were refunded 30%. I spoke to him on the phone upset that it was incorrect and when I asked him to let me talk he told me to "shut the f#@$ up". Then he proceeded to tell me he was the owner so there was nothing I could do about it. The breakfast is a couple of gross sausage and biscuits and some packaged muffins.More</t>
   </si>
   <si>
+    <t>lovetotravelTX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r263585017-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -909,6 +1026,9 @@
     <t>After reading the latest reviews on this place I was very skeptical about staying here but we had warned a free night with our points so we booked it. This is a newly remodeled La Quinta and I must say they did an outstanding job. The carpet is clean and very nice. The bathrooms have new tile in the tub area and and new granite counter tops. They are so new that they still have the manufacture sticker still on them. The shower curtain is one of the new La Quinta ones. We stayed in a king executive room and it was very spacious. For breakfast we had waffles, biscuits and gravy, and sausage. There were lots of kids in the indoor pool and hit tub having fun.  This place is only 7 minutes from The Promise and we received $8 off coupons from the check in desk so we chose to buy our tickets at the ticket office on site which was open all day for our convenience. We were also about 5 minutes from downtown. Could not have asked for a better place to stay. More</t>
   </si>
   <si>
+    <t>Oldspice1947</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r261128424-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -930,6 +1050,9 @@
     <t>We are a couple of old foggies.  My children are grown and we don't get out much.  Rm. 107 (spacious, clean).  Convenient to pool entry door.  Visited March 21, 2015.  Didn't go in but peeked in the indoor pool room and didn't notice all the yellow, gross, chemical pool issues listed in other reviews of this location but I think the room itself is yellow.  Didn't visit the exercise room either, but it looked clean.  The room/linens smelled clean.  Our only issues were with the TV and coffee maker.  Had to call for help with the TV (it was difficult to operate) and the coffeemaker had not been cleaned.  I used my hand to scrape off the yellowed and sticky residue on the inside of the pot.  The water in the handicap shower covers all of the floor; so, don't hang your clothes on the bathroom door hanger.  Didn't see any doggies and that is okay.  We love dogs but we do not travel with them.  There was plenty of food set out for the breakfast crowd and I enjoyed the boiled egg, sausage, gravy, biscuits, fresh fruit and juice.  Don't care to cook and there was a line for the waffle maker.  Family friendly.More</t>
   </si>
   <si>
+    <t>Jennifer L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r260196131-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -948,6 +1071,9 @@
     <t>We originally booked 4 nights, but cut our visit short to 3 nights.  I chose the hotel because of the indoor pool, but that was a major disappointment. The pool was green and we could not see the bottom, even though it was only 3 ft. The spa had bubbles up to 2 feet high. I complained to the front desk, but I think she just added chlorine.  The next day, my eyes hurt just sitting in the unventilated area around the pool.  I made my kids bathe as soon as they returned to the room; my husband and I refused to get in.  The service was poor as well, and they ran out of food in the mornings.  They definitely need better managment.   We will not go back.More</t>
   </si>
   <si>
+    <t>dpal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r260172616-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -961,6 +1087,9 @@
   </si>
   <si>
     <t>You thought there was a Dog Show IN the hotel there were so many people and their dogs.  I did not book my hotel room, my daughter in law mother did.  She booked us a suite and herself a suite.  We all were up to go to the Dinosaur Park with our grandkids for spring break.  There were sooooo many dogs at this hotel it was horrible - Sorry I do not appreciate people bringing dogs to hotel were other people sleep.  Lesson learned for me check out to see if any hotel I stay in is an "Award Winning Pooch Hotel".  I was getting coffee at 7am and some woman and her dog were in the breakfast area getting some coffee.  Also this hotel STINKS - it smelled like wet dogs and old cigarette smoke - guess even the remodel couldn't get the smell it out of the walls.  Our room was clean enough.  The shower curtain had some mold on the bottom that needs to be changed out - easy fix.  Thanks Goodness Our A/C worked liked a charm.  We ran it on 67 on high all night to keep the stench down a couple of notches.  Looks like this hotel has been remodeled which I can appreciate but I guess to the large amount of guest this place need to be cleaned better.  The floors were dirty in the lobby, breakfast area, halls - again - I...You thought there was a Dog Show IN the hotel there were so many people and their dogs.  I did not book my hotel room, my daughter in law mother did.  She booked us a suite and herself a suite.  We all were up to go to the Dinosaur Park with our grandkids for spring break.  There were sooooo many dogs at this hotel it was horrible - Sorry I do not appreciate people bringing dogs to hotel were other people sleep.  Lesson learned for me check out to see if any hotel I stay in is an "Award Winning Pooch Hotel".  I was getting coffee at 7am and some woman and her dog were in the breakfast area getting some coffee.  Also this hotel STINKS - it smelled like wet dogs and old cigarette smoke - guess even the remodel couldn't get the smell it out of the walls.  Our room was clean enough.  The shower curtain had some mold on the bottom that needs to be changed out - easy fix.  Thanks Goodness Our A/C worked liked a charm.  We ran it on 67 on high all night to keep the stench down a couple of notches.  Looks like this hotel has been remodeled which I can appreciate but I guess to the large amount of guest this place need to be cleaned better.  The floors were dirty in the lobby, breakfast area, halls - again - I will say due to spring break there were lots of kids and of course all those dogs people had - I guess it would be tough to keep up.  I can say that the all the people working at LaQuinta were extremely nice and helpful.  The breakfast lady was working overtime - there were sooo many people.  She rocked - she didn't miss a beat.  I want to say something about the pool - Gross!!  First of all don't know if it was because of all the people - but the pool was kinda yucky - didn't notice before the kids jumped in.  But after sitting watching the kids - gross the tile floor was dirty, dirty -flight and lots of hair and "brown spots" - don't even want to guess what they were.  The walls sheetrock coming off (guess to they dampness caused by the pool).  Pool water was iffy - cloudy but that could have been because of the chemicals.  But the hot tub/spa water was gross - yellow tint and lots of foam.  No we did not get in there.  So after 20 mins we got the kids out and had them go back to our rooms and take showers. So I really can't give the hotel poor rating because the lady at the front desk was awesome and the breakfast lady was extremely nice and she was a hardworker.  So I will give this hotel average.  So if you don't mind staying in a doggie hotel this hotel is for you!More</t>
+  </si>
+  <si>
+    <t>Patrickallison1</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r259500886-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
@@ -985,6 +1114,9 @@
 Next night same drill, my wife and I went to the front desk where we waited for Britney to complete a personal phone call before we made another noise complaint. Britney told us that she was" not going to deal with this tonight". However, she did call the room above us and after another sleepless hour the noise died down.
 All in all was a very disappointing experience trying to deal with a staff that just did not seem to care.
 Another issue was the breakfast. It was very crowded and seemed very disorganized. Not enough food or drinks. There was one person trying to...We stayed at this hotel for two nights during spring break week. For both nights of our stay the room above us was EXTREMELY noisy with kids running, jumping, yelling, etc. We waited until after 10:00pm to request that the front desk address the noise issue. We were told that the guests in the noisy room had paid for their room just as we had and there was nothing they could do. We made several more calls to the front desk (Britney) with no relief. At 11:30pm my wife went down to the front desk and requested to speak to a manager. Britney then called the manager and he told her to go to the room and knock on the door. Not sure if she ever did because the noise continued unabated for another hour.Next night same drill, my wife and I went to the front desk where we waited for Britney to complete a personal phone call before we made another noise complaint. Britney told us that she was" not going to deal with this tonight". However, she did call the room above us and after another sleepless hour the noise died down.All in all was a very disappointing experience trying to deal with a staff that just did not seem to care.Another issue was the breakfast. It was very crowded and seemed very disorganized. Not enough food or drinks. There was one person trying to keep up with demand and he just couldn't! I understand it's 'free' but they should prepare for the large crowd when they have a full house.To recap another review, the pool was way too heavily chlorinated!!On a positive note, the property is very clean and well maintained.More</t>
+  </si>
+  <si>
+    <t>kphello</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r259036944-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
@@ -1013,6 +1145,9 @@
 When I checked out I again talked to the asst manager who reduced my room cost by 20.00.  Considering everything my kids went through 20.00 was nothing.  There were several families talking about how they had to give their kids...First I want to say that I have stayed at this hotel in the past with a good result but not this time.  The important thing was once we checked in around 3:00 pm the kids wanted to swim.  We back around 7:30 and figured the chlorine would be better.  Again we lasted less then 30 minutes.  My kids were coughing and vomiting the entire night.  We were not the only family experiencing these problems.  Several families told the clerk at the front desk.  I did call poison control to make sure the kids were going to be ok.  At 11:30 our air conditioner quit working.  I called to the front desk who called the manager and we were told to unplug it for 5 minutes and it should be fine but do not put it past 70.  We could not even find the plug so the clerk came up and had to take the front panel off to find the plug and we had to switch rooms because she could not get it to work.Each time we told a clerk about the chlorine their response was it was cleaned at 1 pm which we all said was unacceptable.When I checked out I again talked to the asst manager who reduced my room cost by 20.00.  Considering everything my kids went through 20.00 was nothing.  There were several families talking about how they had to give their kids breathing treatments.  I was also told there was a note on the door but not when we were there.  I even had to open a door to try to help with ventilation.It was like ok no big deal.  It is a big deal when you make our kids sick because you are negligent. I don't know if the bed was comfortable since I was up most of the night with the kids. The rooms appeared to be clean.  The breakfast was ok but not great.  The breakfast was typical for a hotel.I will not stay any place that does not put the safety of its guess first even if it means shutting the pool down when you start to receive complaints or make sure the chemicals are appropriate levels.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r222738275-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1034,6 +1169,9 @@
     <t>I recently stayed here for a night with my family and friends. At 9 PM, the front desk looked gloomy with low light conditions and the staff made it worse. She didn't greet us (or even took note of us). When my friend (who was travelling with us) checked in on her reservation, the front desk staff just passed me my door key through her. No questions asked, No details given. I felt that was shabby hospitality.When ready to sleep, I was shocked to see blood stains on my comforter. I just kept it aside and used the blanket to keep me warm, as I was too tired to get the staff involved (and after witnessing the earlier reception). The bright side to our stay was the service the next morning. The switch lady staff was very sincere, attentive and apologized for the issue, when I brought it to her attention upon checkout.Overall - good location (close to Glen Rose downtown, BIG CUP restaurant which serves decent Mexican food, pizza hut &lt; 1 mile away, few miles from dinosaur world and state park), enough parking spaces, sits on top of a small hill which is kind of nice, break fast - cold boiled eggs, warm waffles, milk/cereals, fruits, bread, biscuit/sausage/gravy.More</t>
   </si>
   <si>
+    <t>leroys73</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r219562912-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1055,6 +1193,9 @@
     <t>Had to rate either a 3 or 4.  A 3+ or 4- would be more like it.  Everything was good to very good including the price and breakfast (good for the usual stuff).  However, I could not use the dead bold and the security lock was broken.  I was there with my granddaughter and special needs daughter.  I was not very concerned as I was always in the room with them and this is Texas meaning I was armed and wouldn't mind using it.  I reported it to the front desk twice.  The last time I was told they were aware of it and parts were ordered.  I wonder?  Location was good, parking lot very good and easy to find.  If locks worked I rate it a 4.More</t>
   </si>
   <si>
+    <t>lakeflyer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r218081726-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1076,6 +1217,9 @@
     <t>My hubby decided to do one of those mud and obstacle course races at a resort in the area. Since the resort was way too expensive, we opted for a cheaper option in town. The La Quinta was one of the few options in our price range for that weekend and although I'm not normally a fan of La Quinta, we booked.Surprisingly, this appears to be either a brand new or recently renovated hotel. The lobby was very nice and new looking. There were a lot of people in town for the race but the staff was pleasant to everyone checking in. The room itself was clean with what felt like brand new furniture. The only downside was our room was right next to the elevator and we could clearly hear the elevator all night. Had we not been in that location, I probably would have slept even better.We did not eat breakfast the next day, so I can't comment on that but if you find yourself in Glen Rose, the La Quinta is a very good option.More</t>
   </si>
   <si>
+    <t>bkbkSanAntonio_Tx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r215600424-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1094,6 +1238,9 @@
     <t>My overnight stay here while on a trip home to San Antonio was perfect.  The check in process was hassle-free and my requests catered to with no problem.  The room was spotless and very quiet. When I traveled 40 miles down the road the road and thought that I had left my shoes, my call was taken by Tracey who was so polite and helpful.  When it turned out that my shoes were in the backseat of my car, she was gracious and good-humored despite having run up to check my room for the missing shoes.Each member of the staff I encountered was exceptionally polite and helpful and I will continue to stop there when those last miles to San Antonio seem like too many.More</t>
   </si>
   <si>
+    <t>bungeex2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r211844965-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1112,6 +1259,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Bill O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r211761054-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1127,6 +1277,9 @@
     <t>Have been visiting Glen Rose my entire life....staying (as a child) first at the old Glen Rose Hotel and most recently at this nice new LaQuinta.  It was awesome!  The rooms are very comfortable, WiFi is free (YAY!), each room has a refrigerator which is MOST welcome, and the staff was super helpful.  The hotel sits on high ground kind of looking over the Paluxy Valley and it was nice (being from Dallas) actually seeing a little topography!  We'll be back next year--if not sooner.</t>
   </si>
   <si>
+    <t>A La Quinta traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r210498719-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1139,6 +1292,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Paula D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r206373923-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1148,6 +1304,9 @@
     <t>05/20/2014</t>
   </si>
   <si>
+    <t>V9270CYdavidn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r206279933-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1178,6 +1337,9 @@
     <t>We stayed the first weekend in May again this year.  We received excellent service for our two days at the hotel.  There was not a single problem and the staff was very courteous and helpful. Parking is convenient and feels very secure.</t>
   </si>
   <si>
+    <t>Charles P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r203680158-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1196,6 +1358,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Denise H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r201141448-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1211,6 +1376,9 @@
     <t>The staff was rude.  The floors in the halls and stairwells were dirty.  The room was decent.  It was clean, the bathrooms were clean, and there was ample hot water for showers. The breakfast was very poor.  The redeeming item was the texas-shaped waffle.  The sausage patties were almost warm and looked like rubber.  The hard boiled eggs were not fresh; maybe a day old.</t>
   </si>
   <si>
+    <t>Holly B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r200774331-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1226,6 +1394,9 @@
     <t>Outside of the cleanliness issues, this hotel was not a bad place to stay.  The breakfast foods were fresh and plentiful, and the staff was friendly.  But the stains on the furniture, bed linens and towels as well as the unemptied trash can in the bathroom made me feel very uncomfortable in the hotel room.</t>
   </si>
   <si>
+    <t>raydon46</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r199204622-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1244,6 +1415,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>billywylie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r197902958-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1265,6 +1439,9 @@
     <t>Love everything about this hotel.  Staff was very helpful and hospitable.  Room was clean.  Breakfast was a great assortment and fresh.  The kids loved the indoor pool and spa.  Great city!   Will stay here again, for sure!</t>
   </si>
   <si>
+    <t>sschlachter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r196875297-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1280,6 +1457,9 @@
     <t xml:space="preserve">The place was clean and comfortable. Pool area was nice &amp; open late which we loved!! We missed breakfast but overall was a nice stay. If your in the area it's a great resting place seemed quiet. </t>
   </si>
   <si>
+    <t>rob t</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r193392010-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1334,6 +1514,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>sherrill2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r182878887-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1379,6 +1562,9 @@
     <t xml:space="preserve">great place to stay in the Glen Rose TX area. I highly recommend it. The inside pool area was a hit with our grandson. This made it nice to relax and watch him swim after our long day of travel and site seeing. </t>
   </si>
   <si>
+    <t>kimberlyf285</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r178698385-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1427,6 +1613,9 @@
     <t>09/01/2013</t>
   </si>
   <si>
+    <t>Norm S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r174502234-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1451,6 +1640,9 @@
     <t xml:space="preserve">Great hotel with great costumer service.  Room was very clean and front desk was very helpful. Had a very good Stay and will be back again. Very helpful at finding things to do and places to go with my family to enjoy ourselves. Enjoyed the state park and will plan to stay longer next time. </t>
   </si>
   <si>
+    <t>David H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r170118983-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1463,6 +1655,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>jamesgH3023ZR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r160833643-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1490,6 +1685,9 @@
     <t>05/07/2013</t>
   </si>
   <si>
+    <t>gerir695</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r159154855-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1502,6 +1700,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>ecamacho79</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r159093488-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1517,6 +1718,9 @@
     <t xml:space="preserve">There was a mistake and they rented out our room with double beds so they upgraded us to a suite which was not impressive because we needed 2 beds and the suite had only one bed and a very uncomfortable hide-a-bed. But the hotel was nice and clean and really nice inside. It was a great location. I'll definitely book there again and hope there aren't any mistakes this time. </t>
   </si>
   <si>
+    <t>chris d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r159063503-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1529,6 +1733,9 @@
     <t>This is one of our favorite hotels for a weekend getaway just visited for the second time in two months.  Very close and convenient to Dinasaur Valley and Fossil Rim.  Very clean and modern, nice indoor pool, and a fast elevator (you don't realize how important until you get a SLOW one). Overall a great value!</t>
   </si>
   <si>
+    <t>Rileys404</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r154903793-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1547,6 +1754,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Hotel_5150</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r151780413-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1562,6 +1772,9 @@
     <t>Great stay with my family.  Got a 2 room suite for 89.  Of course it's the off season but that is still an amazing value.  They were prompt on every single request.  They even turned the heat up for us in the pool!  We had a great couple of days and they made it easy breezy.</t>
   </si>
   <si>
+    <t>west47</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r150604235-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1574,6 +1787,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>Okra29</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r149530744-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1592,6 +1808,9 @@
     <t>My husband and I booked this hotel for two nights for a little weekend getaway to Glen Rose. We booked this hotel because it was one of the cheapest we could find online, and I figured it would be like other La Quintas I've stayed in before--nice enough but not great. I was very pleasantly surprised with this one! Very, very clean with a "new" feeling and modern decor. It even smells good when you walk down the hall! All the other reviews commenting on the cleanliness of this place are correct; it is very clean! It's not often that I actually want to take a bath in a hotel bath tub, but our tub was so spotless that I could not resist.The indoor pool and hot tub seemed really nice, too. Unfortunately, we didn't bring our swimsuits, and I totally regret that! Oh, and I can't forget the bed, the comfy comfy bed. Overall, just a really great experience for a reasonable price. This place made our trip even better, and I highly recommend staying here.More</t>
   </si>
   <si>
+    <t>harshal123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r149105734-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1607,6 +1826,9 @@
     <t xml:space="preserve">We checked inn really  late on 4th the lady at the front desk was really helpful, hotel was completely full but she gave me good rate and they have hot break fast which had lot of variety, next day we used there pool it was heated nice and warm, can't complain about any thing it was an excellent stay look forward to stay there again </t>
   </si>
   <si>
+    <t>104guyh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r139562451-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1637,6 +1859,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>Stephen S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r135660058-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1655,6 +1880,9 @@
     <t>Immediately upon arriving the attendant at the front desk was obviously asleep and my family walking in woke him. Then he doesn't tell me what room, he just hands me a room card with what appeared to me as room 202, but I was wrong. It was room 222 he said when I carried all of my luggage back to the first floor to find out. Then my room key would not work so I went back down for him to tell me that the hotel had been recently struck by lightening therefore you had to put the room key in, then pull down and back on the handle just to get into our room. If my family wasn't so tired tonight I would have not stayed here. To top it all off our bathroom door would hardly shut, you had to slam it, plenty of marks on the door frame to support that this had been a problem for a long time. Definatly NOT WORTH THE MONEY. More</t>
   </si>
   <si>
+    <t>Katarinasea</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r135617586-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1670,6 +1898,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>Elisabeth C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r134652055-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1685,6 +1916,9 @@
     <t>They are having a major issue with crickets.  So bad they were on the 3rd floor and in the rooms.  This hotel is old and dirty.  Looks clean at first glance but the carpets in the halls are nasty.  The halls and rooms smell like dead crickets.  We had over a dozen dead crickets in our room, the wi-fi does not reach the 3rd floor and there was hair all over our bed.  We got our money back after about 10 minutes there and went to the Holiday Inn Express where is was amazing.</t>
   </si>
   <si>
+    <t>F1191JXpatc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r134055796-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1703,6 +1937,9 @@
     <t>07/03/2012</t>
   </si>
   <si>
+    <t>starwood9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r133369968-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1718,6 +1955,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>arch c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r132769767-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1733,6 +1973,9 @@
     <t>Considering three families arrived at this hotel we all were extremely satisfied. We ate in the dinning room together. Afterwards half of us went to the exercise room the other half went to the pool.We had a blast.Thanks La Quinta.</t>
   </si>
   <si>
+    <t>Lakeguide</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r132644810-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1751,6 +1994,9 @@
     <t>I always thought of La Quinta as a pretty safe bet for a last minute stay with my kids. Decided to stay the night in Glen Rose and got a room at the LQ Inn and Suites. I'll just run down the laundry list of complaints and you can decide for yourself. White comforter on bed looked like it had washed in bloodstains. Pool and hot tub water smelled so bad I would not let my kids swim, and we had been tubing muddy Brazos water all day. Bed was hard as a rock. Coffee maker was broken. Hot breakfast was a plate of sausage that was cold when we got down to the lobby. More</t>
   </si>
   <si>
+    <t>Karin A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r131834166-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1766,6 +2012,9 @@
     <t>Check in was quick and easy.  The prices were reasonable.  I asked for the 2 rooms I reserved to be near each other- and they were. My only complaint was that the kids in the room above me were having a jump-a-thon but that isn't La Quinta's fault! For $89/night, the service, cleanliness and breakfast were above expectations.</t>
   </si>
   <si>
+    <t>Dianne75645</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r131619844-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1781,6 +2030,9 @@
     <t>Just recently we had the chance to go with friends to Glen Rose, Tx.  We visited Fossil Rm and the Dinosaur State Park.  We stayed at the La Quinta Inn in Glen Rose.  I highly recommend this hotel.  The rooms were extra large and very comfortable and clean.  Also, they were very reasonably priced.  The staff was friendly and helpful.  They also served a very nice breakfast.</t>
   </si>
   <si>
+    <t>wingnut55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r131016466-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1799,6 +2051,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>CHARLES L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r130947745-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1823,6 +2078,9 @@
     <t>Clean, comfortable room, helpful staff, great value. Lovely place to stay, will stay here when we return to area for getaway.</t>
   </si>
   <si>
+    <t>Lynn F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r27872119-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1844,6 +2102,9 @@
     <t>Completed in November of 2008 this property is basically brand new and it shows. Clearly in competition with the other chains of mid-level hotels sprouting up in Glen Rose and it appears La Quinta is jockeying for position there. Nicely appointed lobby complete with fireplace and sitting area. Front desk personnel are exceptional with customer service. Check in was a breeze and was greeting with “we have been expecting you.” We had a king bed, microwave, fridge, free high speed Internet access, in room coffeemaker, iron, and hairdryer. The room was clean as were the linens and towels. House keeping was very helpful when asked for additional items etc; although I do have one complaint about that department. If you are staying a couple of days and you happen to be in your room while house keeping is working on rooms along the hall near you. They pull the security slide-latch open to keep the door open while the come and go from the cleaning/supply cart. Well…they let the door slam against the security latch which, to me, is a very irritating and annoying BANG! Wouldn’t be so bad if it were only once or twice but it goes on many, many times for each and every room…You won’t sleep or get that nap you were thinking about. A nice touch I’m seeing in the newer La Quintas is hard wood entries and bathrooms. There is a 32” flat screen...Completed in November of 2008 this property is basically brand new and it shows. Clearly in competition with the other chains of mid-level hotels sprouting up in Glen Rose and it appears La Quinta is jockeying for position there. Nicely appointed lobby complete with fireplace and sitting area. Front desk personnel are exceptional with customer service. Check in was a breeze and was greeting with “we have been expecting you.” We had a king bed, microwave, fridge, free high speed Internet access, in room coffeemaker, iron, and hairdryer. The room was clean as were the linens and towels. House keeping was very helpful when asked for additional items etc; although I do have one complaint about that department. If you are staying a couple of days and you happen to be in your room while house keeping is working on rooms along the hall near you. They pull the security slide-latch open to keep the door open while the come and go from the cleaning/supply cart. Well…they let the door slam against the security latch which, to me, is a very irritating and annoying BANG! Wouldn’t be so bad if it were only once or twice but it goes on many, many times for each and every room…You won’t sleep or get that nap you were thinking about. A nice touch I’m seeing in the newer La Quintas is hard wood entries and bathrooms. There is a 32” flat screen LCD television with multiple stations and HBO. Breakfast is totally continental consisting of danishes, bagels, juices, coffee, teas, and the signature waffle. This location is the closest hotel to Dinosaurs Valley State Park. A must see when in Glen Rose. Restaurants we ate at were Donna K’s Catfish…yumm…yumm, fresh, good and abundant. North Hwy 144 a couple of miles. Hammonds BBQ, the real deal and delicious, don’t miss the home made pies in many varieties. Hwy 67 not far from La Quinta. On the fun side and to kick it old school is to head out 17 miles to Gandbury (Hwy 144) and check out the Brazos Drive In Theater. Established 1952 and has not closed since. Open Friday and Saturday nights only. Box office opens at 7:30pm. Movie time 8:30pm. A word of advice…arrive prior to 7:30pm to get in line as this is a popular place. I’ll defiantly stay at this La Quinta again.More</t>
   </si>
   <si>
+    <t>mike_maverick</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r23961879-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1862,6 +2123,9 @@
     <t>January 2009</t>
   </si>
   <si>
+    <t>sallymegayla</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r587437472-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1880,6 +2144,9 @@
     <t>June 2018</t>
   </si>
   <si>
+    <t>heddiw2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r585902891-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1892,6 +2159,9 @@
     <t>Had a great stay the room smelt fresh and clean. The indoor pool had a nice hot tub that I took advantage of on my stay. Also the breakfast was perfect and I had a perfect view of the town. Will defiantly be returning keep up the great work guys.</t>
   </si>
   <si>
+    <t>DTCTJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r575035002-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1913,6 +2183,9 @@
     <t>The room was nice and updated and bed was comfortable.  Everything else is lacking.  The halls have nice carpeting, but the corners, and trim work is in bad shape.  We requested a roll away bed at check in and then had to call down for it 2 more times.  When it arrived, they said it was the last one, and had a broken leg so we had to put the mattress (which looked to be 15+ years old) on the ground.It is very clearly posted that the hotel is 100% smoke free.....but the employees were constantly standing at the entrance smoking....that ashtray was in dire need of being emptied.  We called down for an extra pillow for the roll away mattress - there were 4 pillows on the bed, but they were all so small that we each required 2.  We were told that the hotel was out of pillows????  Breakfast left much to be desired.  Our rate was $130/night.......$65 would have been more appropriate.  The rooms are very spacious and could easily accommodate a sofa, but a small chair is all that occupies that large space.  Decor was nice and Microwave/Fridge were handy.More</t>
   </si>
   <si>
+    <t>Kelly E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r571302303-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1932,6 +2205,9 @@
   </si>
   <si>
     <t>We stayed here for one night on a whim to check out Dinosaur Valley Park...because we are iffy on camping and it was supposed to rain through the night. The hotel was only a few miles from the park and was even closer to Big Rocks park where we spent just as much time playing and exploring. We had no complaints. It was a typical LA Quinta experience, which to me means a good value, clean, with a decent hot breakfast. The staff was also nice enough.More</t>
+  </si>
+  <si>
+    <t>tangojohnDallas</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1200854-r557909547-La_Quinta_Inn_Suites_Glen_Rose-Glen_Rose_Texas.html</t>
@@ -2457,43 +2733,47 @@
       <c r="A2" t="n">
         <v>58446</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>47223</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -2517,50 +2797,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>58446</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>166218</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
         <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2582,56 +2866,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>58446</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>166219</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2643,56 +2931,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>58446</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>166220</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2714,56 +3006,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>58446</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>166221</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P6" t="n">
         <v>2</v>
@@ -2781,56 +3077,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="X6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>58446</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>166222</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -2846,56 +3146,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="X7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>58446</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>14679</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2911,56 +3215,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="X8" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>58446</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>166223</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2972,56 +3280,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="X9" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>58446</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>166224</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3033,56 +3345,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="X10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>58446</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>166225</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3094,56 +3410,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="X11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="Y11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>58446</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>166226</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -3161,56 +3481,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="X12" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>58446</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>62502</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3222,56 +3546,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="X13" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Y13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>58446</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>166227</v>
+      </c>
+      <c r="C14" t="s">
+        <v>149</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="J14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="K14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3289,50 +3617,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>58446</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>166228</v>
+      </c>
+      <c r="C15" t="s">
+        <v>157</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="K15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="L15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3346,50 +3678,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>58446</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>87261</v>
+      </c>
+      <c r="C16" t="s">
+        <v>164</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="J16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="K16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="O16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3403,50 +3739,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>58446</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>166229</v>
+      </c>
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="J17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="K17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="O17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3458,56 +3798,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="X17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="Y17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>58446</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>166230</v>
+      </c>
+      <c r="C18" t="s">
+        <v>182</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="J18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="K18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="L18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="O18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3521,50 +3865,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>58446</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>7276</v>
+      </c>
+      <c r="C19" t="s">
+        <v>189</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="J19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3584,50 +3932,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>58446</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>11212</v>
+      </c>
+      <c r="C20" t="s">
+        <v>195</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="J20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="K20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -3647,50 +3999,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>58446</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>166231</v>
+      </c>
+      <c r="C21" t="s">
+        <v>202</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="J21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="K21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="O21" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3704,50 +4060,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>58446</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>38377</v>
+      </c>
+      <c r="C22" t="s">
+        <v>209</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="J22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="K22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="O22" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3763,50 +4123,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>58446</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>3451</v>
+      </c>
+      <c r="C23" t="s">
+        <v>215</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="J23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="K23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="L23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3826,50 +4190,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>58446</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>15618</v>
+      </c>
+      <c r="C24" t="s">
+        <v>221</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="J24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="K24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3889,50 +4257,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>58446</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>166232</v>
+      </c>
+      <c r="C25" t="s">
+        <v>227</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="J25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="K25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="O25" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3950,50 +4322,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>58446</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>166233</v>
+      </c>
+      <c r="C26" t="s">
+        <v>235</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="J26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="K26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="L26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4009,50 +4385,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>58446</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>1581</v>
+      </c>
+      <c r="C27" t="s">
+        <v>241</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="J27" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="K27" t="s">
         <v>12</v>
       </c>
       <c r="L27" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>2</v>
@@ -4074,41 +4454,45 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>58446</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>166234</v>
+      </c>
+      <c r="C28" t="s">
+        <v>247</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="J28" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="K28" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
@@ -4127,50 +4511,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>58446</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>29325</v>
+      </c>
+      <c r="C29" t="s">
+        <v>253</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="J29" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="K29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="L29" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="O29" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -4188,50 +4576,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>58446</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>166235</v>
+      </c>
+      <c r="C30" t="s">
+        <v>260</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="J30" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="K30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="L30" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -4255,50 +4647,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>58446</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>166236</v>
+      </c>
+      <c r="C31" t="s">
+        <v>266</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="J31" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="K31" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="L31" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4312,50 +4708,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>58446</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>51441</v>
+      </c>
+      <c r="C32" t="s">
+        <v>272</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="J32" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="K32" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="L32" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="O32" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -4373,50 +4773,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>58446</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>1826</v>
+      </c>
+      <c r="C33" t="s">
+        <v>278</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="J33" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="K33" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="L33" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="O33" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -4440,50 +4844,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>58446</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>71892</v>
+      </c>
+      <c r="C34" t="s">
+        <v>286</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="J34" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="K34" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="L34" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4503,50 +4911,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>58446</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>6383</v>
+      </c>
+      <c r="C35" t="s">
+        <v>293</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="J35" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="K35" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4564,50 +4976,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>58446</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>166237</v>
+      </c>
+      <c r="C36" t="s">
+        <v>300</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="J36" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="K36" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="L36" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="O36" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4625,50 +5041,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>58446</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>8359</v>
+      </c>
+      <c r="C37" t="s">
+        <v>307</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="J37" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="K37" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="L37" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="O37" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -4688,32 +5108,36 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>58446</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>7276</v>
+      </c>
+      <c r="C38" t="s">
+        <v>189</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="J38" t="s"/>
       <c r="K38" t="s"/>
@@ -4730,51 +5154,52 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
-      <c r="Y38" t="s"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>58446</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>166238</v>
+      </c>
+      <c r="C39" t="s">
+        <v>315</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="J39" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="K39" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="L39" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="O39" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4794,50 +5219,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>58446</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>1270</v>
+      </c>
+      <c r="C40" t="s">
+        <v>322</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="J40" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="K40" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="L40" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4855,50 +5284,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>58446</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>166239</v>
+      </c>
+      <c r="C41" t="s">
+        <v>329</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="J41" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="K41" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="L41" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="O41" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4912,50 +5345,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>58446</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>166240</v>
+      </c>
+      <c r="C42" t="s">
+        <v>336</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="J42" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="K42" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="L42" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="O42" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -4973,50 +5410,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>58446</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>3642</v>
+      </c>
+      <c r="C43" t="s">
+        <v>344</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="J43" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="K43" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="L43" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -5036,50 +5477,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>58446</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>166241</v>
+      </c>
+      <c r="C44" t="s">
+        <v>351</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="J44" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="K44" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="L44" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5097,50 +5542,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>58446</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>166242</v>
+      </c>
+      <c r="C45" t="s">
+        <v>357</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="J45" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="K45" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="L45" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -5158,50 +5607,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>58446</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>166243</v>
+      </c>
+      <c r="C46" t="s">
+        <v>364</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="J46" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="K46" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="L46" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -5221,50 +5674,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>58446</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>371</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
       <c r="J47" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="K47" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="L47" t="s">
-        <v>331</v>
+        <v>376</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>332</v>
+        <v>377</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -5288,50 +5745,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>58446</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>166244</v>
+      </c>
+      <c r="C48" t="s">
+        <v>379</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="J48" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="K48" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="L48" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
@@ -5351,50 +5812,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>340</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>58446</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>68400</v>
+      </c>
+      <c r="C49" t="s">
+        <v>387</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="J49" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="K49" t="s">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="L49" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="O49" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5414,50 +5879,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>58446</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>166245</v>
+      </c>
+      <c r="C50" t="s">
+        <v>395</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>349</v>
+        <v>397</v>
       </c>
       <c r="J50" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="K50" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="L50" t="s">
-        <v>352</v>
+        <v>400</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="O50" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="n">
@@ -5475,50 +5944,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>353</v>
+        <v>401</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>58446</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>166246</v>
+      </c>
+      <c r="C51" t="s">
+        <v>402</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>354</v>
+        <v>403</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="J51" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="K51" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="L51" t="s">
-        <v>358</v>
+        <v>407</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>359</v>
+        <v>408</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -5542,50 +6015,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>358</v>
+        <v>407</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>58446</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>42473</v>
+      </c>
+      <c r="C52" t="s">
+        <v>409</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="J52" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="K52" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="L52" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>359</v>
+        <v>408</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5609,35 +6086,39 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>58446</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C53" t="s">
+        <v>415</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>365</v>
+        <v>416</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>366</v>
+        <v>417</v>
       </c>
       <c r="J53" t="s">
-        <v>367</v>
+        <v>418</v>
       </c>
       <c r="K53" t="s"/>
       <c r="L53" t="s"/>
@@ -5645,10 +6126,10 @@
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5669,36 +6150,37 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
-      <c r="Y53" t="s"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>58446</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>42193</v>
+      </c>
+      <c r="C54" t="s">
+        <v>420</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>369</v>
+        <v>421</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="J54" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="K54" t="s"/>
       <c r="L54" t="s"/>
@@ -5706,10 +6188,10 @@
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -5728,51 +6210,52 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
-      <c r="Y54" t="s"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>58446</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>166247</v>
+      </c>
+      <c r="C55" t="s">
+        <v>424</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>372</v>
+        <v>425</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="J55" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="K55" t="s">
-        <v>375</v>
+        <v>428</v>
       </c>
       <c r="L55" t="s">
-        <v>376</v>
+        <v>429</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="O55" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5796,50 +6279,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>376</v>
+        <v>429</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>58446</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>7276</v>
+      </c>
+      <c r="C56" t="s">
+        <v>189</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>377</v>
+        <v>430</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>378</v>
+        <v>431</v>
       </c>
       <c r="J56" t="s">
-        <v>379</v>
+        <v>432</v>
       </c>
       <c r="K56" t="s">
-        <v>380</v>
+        <v>433</v>
       </c>
       <c r="L56" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5863,50 +6350,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>58446</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>7012</v>
+      </c>
+      <c r="C57" t="s">
+        <v>435</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="J57" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="K57" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="L57" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -5930,50 +6421,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>58446</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>37418</v>
+      </c>
+      <c r="C58" t="s">
+        <v>442</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="J58" t="s">
-        <v>390</v>
+        <v>445</v>
       </c>
       <c r="K58" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="L58" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="O58" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="P58" t="n">
         <v>2</v>
@@ -5997,50 +6492,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>58446</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>11087</v>
+      </c>
+      <c r="C59" t="s">
+        <v>448</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>394</v>
+        <v>450</v>
       </c>
       <c r="J59" t="s">
-        <v>395</v>
+        <v>451</v>
       </c>
       <c r="K59" t="s">
-        <v>396</v>
+        <v>452</v>
       </c>
       <c r="L59" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="O59" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="P59" t="n">
         <v>3</v>
@@ -6064,50 +6563,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>58446</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>165398</v>
+      </c>
+      <c r="C60" t="s">
+        <v>454</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>398</v>
+        <v>455</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>399</v>
+        <v>456</v>
       </c>
       <c r="J60" t="s">
-        <v>400</v>
+        <v>457</v>
       </c>
       <c r="K60" t="s">
-        <v>401</v>
+        <v>458</v>
       </c>
       <c r="L60" t="s">
-        <v>402</v>
+        <v>459</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6131,35 +6634,39 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>402</v>
+        <v>459</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>58446</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>166248</v>
+      </c>
+      <c r="C61" t="s">
+        <v>461</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>404</v>
+        <v>462</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>405</v>
+        <v>463</v>
       </c>
       <c r="J61" t="s">
-        <v>406</v>
+        <v>464</v>
       </c>
       <c r="K61" t="s"/>
       <c r="L61" t="s"/>
@@ -6167,10 +6674,10 @@
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>1</v>
@@ -6191,51 +6698,52 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
-      <c r="Y61" t="s"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>58446</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>371</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>407</v>
+        <v>465</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>408</v>
+        <v>466</v>
       </c>
       <c r="J62" t="s">
-        <v>406</v>
+        <v>464</v>
       </c>
       <c r="K62" t="s">
-        <v>409</v>
+        <v>467</v>
       </c>
       <c r="L62" t="s">
-        <v>410</v>
+        <v>468</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6259,41 +6767,45 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>410</v>
+        <v>468</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>58446</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>166249</v>
+      </c>
+      <c r="C63" t="s">
+        <v>469</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>411</v>
+        <v>470</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>412</v>
+        <v>471</v>
       </c>
       <c r="J63" t="s">
-        <v>413</v>
+        <v>472</v>
       </c>
       <c r="K63" t="s">
-        <v>414</v>
+        <v>473</v>
       </c>
       <c r="L63" t="s">
-        <v>415</v>
+        <v>474</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
@@ -6322,50 +6834,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>415</v>
+        <v>474</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>58446</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>51497</v>
+      </c>
+      <c r="C64" t="s">
+        <v>475</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>416</v>
+        <v>476</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>417</v>
+        <v>477</v>
       </c>
       <c r="J64" t="s">
-        <v>418</v>
+        <v>478</v>
       </c>
       <c r="K64" t="s">
-        <v>419</v>
+        <v>479</v>
       </c>
       <c r="L64" t="s">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>421</v>
+        <v>481</v>
       </c>
       <c r="O64" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6389,50 +6905,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>420</v>
+        <v>480</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>58446</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>371</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>422</v>
+        <v>482</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>423</v>
+        <v>483</v>
       </c>
       <c r="J65" t="s">
-        <v>424</v>
+        <v>484</v>
       </c>
       <c r="K65" t="s">
-        <v>425</v>
+        <v>485</v>
       </c>
       <c r="L65" t="s">
-        <v>426</v>
+        <v>486</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>421</v>
+        <v>481</v>
       </c>
       <c r="O65" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6456,50 +6976,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>427</v>
+        <v>487</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>58446</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>371</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>428</v>
+        <v>488</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>429</v>
+        <v>489</v>
       </c>
       <c r="J66" t="s">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="K66" t="s">
-        <v>431</v>
+        <v>491</v>
       </c>
       <c r="L66" t="s">
-        <v>432</v>
+        <v>492</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>433</v>
+        <v>493</v>
       </c>
       <c r="O66" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6521,50 +7045,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>432</v>
+        <v>492</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>58446</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>166250</v>
+      </c>
+      <c r="C67" t="s">
+        <v>494</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>434</v>
+        <v>495</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>435</v>
+        <v>496</v>
       </c>
       <c r="J67" t="s">
-        <v>436</v>
+        <v>497</v>
       </c>
       <c r="K67" t="s">
-        <v>437</v>
+        <v>498</v>
       </c>
       <c r="L67" t="s">
-        <v>438</v>
+        <v>499</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>439</v>
+        <v>500</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6588,50 +7116,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>438</v>
+        <v>499</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>58446</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>371</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>440</v>
+        <v>501</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>441</v>
+        <v>502</v>
       </c>
       <c r="J68" t="s">
-        <v>442</v>
+        <v>503</v>
       </c>
       <c r="K68" t="s">
-        <v>431</v>
+        <v>491</v>
       </c>
       <c r="L68" t="s">
-        <v>443</v>
+        <v>504</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>439</v>
+        <v>500</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6655,50 +7187,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>443</v>
+        <v>504</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>58446</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>371</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>444</v>
+        <v>505</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>445</v>
+        <v>506</v>
       </c>
       <c r="J69" t="s">
-        <v>446</v>
+        <v>507</v>
       </c>
       <c r="K69" t="s">
-        <v>447</v>
+        <v>508</v>
       </c>
       <c r="L69" t="s">
-        <v>448</v>
+        <v>509</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>439</v>
+        <v>500</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6722,35 +7258,39 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>448</v>
+        <v>509</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>58446</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>166251</v>
+      </c>
+      <c r="C70" t="s">
+        <v>510</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>449</v>
+        <v>511</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>450</v>
+        <v>512</v>
       </c>
       <c r="J70" t="s">
-        <v>451</v>
+        <v>513</v>
       </c>
       <c r="K70" t="s"/>
       <c r="L70" t="s"/>
@@ -6758,10 +7298,10 @@
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>452</v>
+        <v>514</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -6782,51 +7322,52 @@
       <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="s"/>
-      <c r="X70" t="s"/>
-      <c r="Y70" t="s"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>58446</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>371</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>453</v>
+        <v>515</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>454</v>
+        <v>516</v>
       </c>
       <c r="J71" t="s">
-        <v>455</v>
+        <v>517</v>
       </c>
       <c r="K71" t="s">
-        <v>456</v>
+        <v>518</v>
       </c>
       <c r="L71" t="s">
-        <v>457</v>
+        <v>519</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>452</v>
+        <v>514</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -6850,35 +7391,39 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>457</v>
+        <v>519</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>58446</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C72" t="s">
+        <v>415</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>458</v>
+        <v>520</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>459</v>
+        <v>521</v>
       </c>
       <c r="J72" t="s">
-        <v>460</v>
+        <v>522</v>
       </c>
       <c r="K72" t="s"/>
       <c r="L72" t="s"/>
@@ -6886,10 +7431,10 @@
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>461</v>
+        <v>523</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -6910,36 +7455,37 @@
       <c r="V72" t="n">
         <v>0</v>
       </c>
-      <c r="W72" t="s"/>
-      <c r="X72" t="s"/>
-      <c r="Y72" t="s"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>58446</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C73" t="s">
+        <v>415</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>462</v>
+        <v>524</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>463</v>
+        <v>525</v>
       </c>
       <c r="J73" t="s">
-        <v>464</v>
+        <v>526</v>
       </c>
       <c r="K73" t="s"/>
       <c r="L73" t="s"/>
@@ -6947,10 +7493,10 @@
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>461</v>
+        <v>523</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -6971,36 +7517,37 @@
       <c r="V73" t="n">
         <v>0</v>
       </c>
-      <c r="W73" t="s"/>
-      <c r="X73" t="s"/>
-      <c r="Y73" t="s"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>58446</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>56496</v>
+      </c>
+      <c r="C74" t="s">
+        <v>527</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>465</v>
+        <v>528</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>466</v>
+        <v>529</v>
       </c>
       <c r="J74" t="s">
-        <v>467</v>
+        <v>530</v>
       </c>
       <c r="K74" t="s"/>
       <c r="L74" t="s"/>
@@ -7008,10 +7555,10 @@
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>461</v>
+        <v>523</v>
       </c>
       <c r="O74" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7032,51 +7579,52 @@
       <c r="V74" t="n">
         <v>0</v>
       </c>
-      <c r="W74" t="s"/>
-      <c r="X74" t="s"/>
-      <c r="Y74" t="s"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>58446</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>371</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>468</v>
+        <v>531</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>469</v>
+        <v>532</v>
       </c>
       <c r="J75" t="s">
-        <v>470</v>
+        <v>533</v>
       </c>
       <c r="K75" t="s">
-        <v>471</v>
+        <v>534</v>
       </c>
       <c r="L75" t="s">
-        <v>472</v>
+        <v>535</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>461</v>
+        <v>523</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7100,35 +7648,39 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>472</v>
+        <v>535</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>58446</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>322</v>
+      </c>
+      <c r="C76" t="s">
+        <v>536</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>473</v>
+        <v>537</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>474</v>
+        <v>538</v>
       </c>
       <c r="J76" t="s">
-        <v>475</v>
+        <v>539</v>
       </c>
       <c r="K76" t="s"/>
       <c r="L76" t="s"/>
@@ -7136,10 +7688,10 @@
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>476</v>
+        <v>540</v>
       </c>
       <c r="O76" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7160,51 +7712,52 @@
       <c r="V76" t="n">
         <v>0</v>
       </c>
-      <c r="W76" t="s"/>
-      <c r="X76" t="s"/>
-      <c r="Y76" t="s"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>58446</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>166252</v>
+      </c>
+      <c r="C77" t="s">
+        <v>541</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>477</v>
+        <v>542</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>478</v>
+        <v>543</v>
       </c>
       <c r="J77" t="s">
-        <v>479</v>
+        <v>544</v>
       </c>
       <c r="K77" t="s">
-        <v>480</v>
+        <v>545</v>
       </c>
       <c r="L77" t="s">
-        <v>481</v>
+        <v>546</v>
       </c>
       <c r="M77" t="n">
         <v>2</v>
       </c>
       <c r="N77" t="s">
-        <v>482</v>
+        <v>547</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7228,35 +7781,39 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>481</v>
+        <v>546</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>58446</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>7276</v>
+      </c>
+      <c r="C78" t="s">
+        <v>189</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>483</v>
+        <v>548</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>484</v>
+        <v>549</v>
       </c>
       <c r="J78" t="s">
-        <v>485</v>
+        <v>550</v>
       </c>
       <c r="K78" t="s"/>
       <c r="L78" t="s"/>
@@ -7264,10 +7821,10 @@
         <v>1</v>
       </c>
       <c r="N78" t="s">
-        <v>482</v>
+        <v>547</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>1</v>
@@ -7288,36 +7845,37 @@
       <c r="V78" t="n">
         <v>0</v>
       </c>
-      <c r="W78" t="s"/>
-      <c r="X78" t="s"/>
-      <c r="Y78" t="s"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>58446</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>166253</v>
+      </c>
+      <c r="C79" t="s">
+        <v>551</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>486</v>
+        <v>552</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>487</v>
+        <v>553</v>
       </c>
       <c r="J79" t="s">
-        <v>488</v>
+        <v>554</v>
       </c>
       <c r="K79" t="s"/>
       <c r="L79" t="s"/>
@@ -7325,10 +7883,10 @@
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>489</v>
+        <v>555</v>
       </c>
       <c r="O79" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7349,42 +7907,43 @@
       <c r="V79" t="n">
         <v>0</v>
       </c>
-      <c r="W79" t="s"/>
-      <c r="X79" t="s"/>
-      <c r="Y79" t="s"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>58446</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>166254</v>
+      </c>
+      <c r="C80" t="s">
+        <v>556</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>490</v>
+        <v>557</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>491</v>
+        <v>558</v>
       </c>
       <c r="J80" t="s">
-        <v>492</v>
+        <v>559</v>
       </c>
       <c r="K80" t="s">
-        <v>493</v>
+        <v>560</v>
       </c>
       <c r="L80" t="s">
-        <v>494</v>
+        <v>561</v>
       </c>
       <c r="M80" t="n">
         <v>3</v>
@@ -7413,50 +7972,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>494</v>
+        <v>561</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>58446</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>166255</v>
+      </c>
+      <c r="C81" t="s">
+        <v>562</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>495</v>
+        <v>563</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>496</v>
+        <v>564</v>
       </c>
       <c r="J81" t="s">
-        <v>492</v>
+        <v>559</v>
       </c>
       <c r="K81" t="s">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="L81" t="s">
-        <v>498</v>
+        <v>566</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>489</v>
+        <v>555</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7478,50 +8041,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>498</v>
+        <v>566</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>58446</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>166256</v>
+      </c>
+      <c r="C82" t="s">
+        <v>567</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>499</v>
+        <v>568</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>500</v>
+        <v>569</v>
       </c>
       <c r="J82" t="s">
-        <v>501</v>
+        <v>570</v>
       </c>
       <c r="K82" t="s">
-        <v>502</v>
+        <v>571</v>
       </c>
       <c r="L82" t="s">
-        <v>503</v>
+        <v>572</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>504</v>
+        <v>573</v>
       </c>
       <c r="O82" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="P82" t="n">
         <v>4</v>
@@ -7545,41 +8112,45 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>503</v>
+        <v>572</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>58446</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>166257</v>
+      </c>
+      <c r="C83" t="s">
+        <v>574</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>505</v>
+        <v>575</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>506</v>
+        <v>576</v>
       </c>
       <c r="J83" t="s">
-        <v>507</v>
+        <v>577</v>
       </c>
       <c r="K83" t="s">
-        <v>508</v>
+        <v>578</v>
       </c>
       <c r="L83" t="s">
-        <v>509</v>
+        <v>579</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
@@ -7608,35 +8179,39 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>509</v>
+        <v>579</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>58446</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>166258</v>
+      </c>
+      <c r="C84" t="s">
+        <v>580</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>510</v>
+        <v>581</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>511</v>
+        <v>582</v>
       </c>
       <c r="J84" t="s">
-        <v>512</v>
+        <v>583</v>
       </c>
       <c r="K84" t="s"/>
       <c r="L84" t="s"/>
@@ -7644,10 +8219,10 @@
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>513</v>
+        <v>584</v>
       </c>
       <c r="O84" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -7668,51 +8243,52 @@
       <c r="V84" t="n">
         <v>0</v>
       </c>
-      <c r="W84" t="s"/>
-      <c r="X84" t="s"/>
-      <c r="Y84" t="s"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>58446</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>166259</v>
+      </c>
+      <c r="C85" t="s">
+        <v>585</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>514</v>
+        <v>586</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>515</v>
+        <v>587</v>
       </c>
       <c r="J85" t="s">
-        <v>516</v>
+        <v>588</v>
       </c>
       <c r="K85" t="s">
-        <v>517</v>
+        <v>589</v>
       </c>
       <c r="L85" t="s">
-        <v>518</v>
+        <v>590</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>513</v>
+        <v>584</v>
       </c>
       <c r="O85" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -7736,50 +8312,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>519</v>
+        <v>591</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>58446</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>166260</v>
+      </c>
+      <c r="C86" t="s">
+        <v>592</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>520</v>
+        <v>593</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>521</v>
+        <v>594</v>
       </c>
       <c r="J86" t="s">
-        <v>522</v>
+        <v>595</v>
       </c>
       <c r="K86" t="s">
-        <v>523</v>
+        <v>596</v>
       </c>
       <c r="L86" t="s">
-        <v>524</v>
+        <v>597</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>513</v>
+        <v>584</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -7803,50 +8383,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>524</v>
+        <v>597</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>58446</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>166261</v>
+      </c>
+      <c r="C87" t="s">
+        <v>598</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>526</v>
+        <v>600</v>
       </c>
       <c r="J87" t="s">
-        <v>527</v>
+        <v>601</v>
       </c>
       <c r="K87" t="s">
-        <v>528</v>
+        <v>602</v>
       </c>
       <c r="L87" t="s">
-        <v>529</v>
+        <v>603</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>530</v>
+        <v>604</v>
       </c>
       <c r="O87" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -7870,35 +8454,39 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>529</v>
+        <v>603</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>58446</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C88" t="s">
+        <v>415</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>531</v>
+        <v>605</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>532</v>
+        <v>606</v>
       </c>
       <c r="J88" t="s">
-        <v>533</v>
+        <v>607</v>
       </c>
       <c r="K88" t="s"/>
       <c r="L88" t="s"/>
@@ -7906,10 +8494,10 @@
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>534</v>
+        <v>608</v>
       </c>
       <c r="O88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -7930,42 +8518,43 @@
       <c r="V88" t="n">
         <v>0</v>
       </c>
-      <c r="W88" t="s"/>
-      <c r="X88" t="s"/>
-      <c r="Y88" t="s"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>58446</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>33890</v>
+      </c>
+      <c r="C89" t="s">
+        <v>609</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>535</v>
+        <v>610</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>536</v>
+        <v>611</v>
       </c>
       <c r="J89" t="s">
-        <v>537</v>
+        <v>612</v>
       </c>
       <c r="K89" t="s">
-        <v>538</v>
+        <v>613</v>
       </c>
       <c r="L89" t="s">
-        <v>539</v>
+        <v>614</v>
       </c>
       <c r="M89" t="n">
         <v>2</v>
@@ -7994,50 +8583,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>540</v>
+        <v>615</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>58446</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>166262</v>
+      </c>
+      <c r="C90" t="s">
+        <v>616</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>541</v>
+        <v>617</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>542</v>
+        <v>618</v>
       </c>
       <c r="J90" t="s">
-        <v>537</v>
+        <v>612</v>
       </c>
       <c r="K90" t="s">
-        <v>543</v>
+        <v>619</v>
       </c>
       <c r="L90" t="s">
-        <v>544</v>
+        <v>620</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>545</v>
+        <v>621</v>
       </c>
       <c r="O90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -8061,50 +8654,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>544</v>
+        <v>620</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>58446</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>166263</v>
+      </c>
+      <c r="C91" t="s">
+        <v>622</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>546</v>
+        <v>623</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>547</v>
+        <v>624</v>
       </c>
       <c r="J91" t="s">
-        <v>548</v>
+        <v>625</v>
       </c>
       <c r="K91" t="s">
-        <v>549</v>
+        <v>626</v>
       </c>
       <c r="L91" t="s">
-        <v>550</v>
+        <v>627</v>
       </c>
       <c r="M91" t="n">
         <v>2</v>
       </c>
       <c r="N91" t="s">
-        <v>545</v>
+        <v>621</v>
       </c>
       <c r="O91" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P91" t="n">
         <v>2</v>
@@ -8128,35 +8725,39 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>550</v>
+        <v>627</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>58446</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>166264</v>
+      </c>
+      <c r="C92" t="s">
+        <v>628</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>551</v>
+        <v>629</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>552</v>
+        <v>630</v>
       </c>
       <c r="J92" t="s">
-        <v>553</v>
+        <v>631</v>
       </c>
       <c r="K92" t="s"/>
       <c r="L92" t="s"/>
@@ -8164,10 +8765,10 @@
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>545</v>
+        <v>621</v>
       </c>
       <c r="O92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8188,36 +8789,37 @@
       <c r="V92" t="n">
         <v>0</v>
       </c>
-      <c r="W92" t="s"/>
-      <c r="X92" t="s"/>
-      <c r="Y92" t="s"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>58446</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>166259</v>
+      </c>
+      <c r="C93" t="s">
+        <v>592</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>554</v>
+        <v>632</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>555</v>
+        <v>633</v>
       </c>
       <c r="J93" t="s">
-        <v>556</v>
+        <v>634</v>
       </c>
       <c r="K93" t="s"/>
       <c r="L93" t="s"/>
@@ -8225,10 +8827,10 @@
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>545</v>
+        <v>621</v>
       </c>
       <c r="O93" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8249,51 +8851,52 @@
       <c r="V93" t="n">
         <v>0</v>
       </c>
-      <c r="W93" t="s"/>
-      <c r="X93" t="s"/>
-      <c r="Y93" t="s"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>58446</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>166265</v>
+      </c>
+      <c r="C94" t="s">
+        <v>635</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>557</v>
+        <v>636</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>558</v>
+        <v>637</v>
       </c>
       <c r="J94" t="s">
-        <v>556</v>
+        <v>634</v>
       </c>
       <c r="K94" t="s">
-        <v>559</v>
+        <v>638</v>
       </c>
       <c r="L94" t="s">
-        <v>560</v>
+        <v>639</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>561</v>
+        <v>640</v>
       </c>
       <c r="O94" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -8317,50 +8920,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>560</v>
+        <v>639</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>58446</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>166266</v>
+      </c>
+      <c r="C95" t="s">
+        <v>641</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>562</v>
+        <v>642</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>563</v>
+        <v>643</v>
       </c>
       <c r="J95" t="s">
-        <v>564</v>
+        <v>644</v>
       </c>
       <c r="K95" t="s">
-        <v>565</v>
+        <v>645</v>
       </c>
       <c r="L95" t="s">
-        <v>566</v>
+        <v>646</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>561</v>
+        <v>640</v>
       </c>
       <c r="O95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P95" t="n">
         <v>4</v>
@@ -8384,41 +8991,45 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>566</v>
+        <v>646</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>58446</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>166267</v>
+      </c>
+      <c r="C96" t="s">
+        <v>647</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>567</v>
+        <v>648</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>568</v>
+        <v>649</v>
       </c>
       <c r="J96" t="s">
-        <v>569</v>
+        <v>650</v>
       </c>
       <c r="K96" t="s">
-        <v>570</v>
+        <v>651</v>
       </c>
       <c r="L96" t="s">
-        <v>571</v>
+        <v>652</v>
       </c>
       <c r="M96" t="n">
         <v>2</v>
@@ -8447,50 +9058,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>572</v>
+        <v>653</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>58446</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>166268</v>
+      </c>
+      <c r="C97" t="s">
+        <v>654</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>573</v>
+        <v>655</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>574</v>
+        <v>656</v>
       </c>
       <c r="J97" t="s">
-        <v>575</v>
+        <v>657</v>
       </c>
       <c r="K97" t="s">
-        <v>576</v>
+        <v>658</v>
       </c>
       <c r="L97" t="s">
-        <v>577</v>
+        <v>659</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>561</v>
+        <v>640</v>
       </c>
       <c r="O97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -8514,50 +9129,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>577</v>
+        <v>659</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>58446</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>166269</v>
+      </c>
+      <c r="C98" t="s">
+        <v>660</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>578</v>
+        <v>661</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>579</v>
+        <v>662</v>
       </c>
       <c r="J98" t="s">
-        <v>580</v>
+        <v>663</v>
       </c>
       <c r="K98" t="s">
-        <v>581</v>
+        <v>664</v>
       </c>
       <c r="L98" t="s">
-        <v>582</v>
+        <v>665</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>561</v>
+        <v>640</v>
       </c>
       <c r="O98" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -8581,50 +9200,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>582</v>
+        <v>665</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>58446</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>166270</v>
+      </c>
+      <c r="C99" t="s">
+        <v>666</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>583</v>
+        <v>667</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>584</v>
+        <v>668</v>
       </c>
       <c r="J99" t="s">
-        <v>585</v>
+        <v>669</v>
       </c>
       <c r="K99" t="s">
-        <v>586</v>
+        <v>670</v>
       </c>
       <c r="L99" t="s">
-        <v>587</v>
+        <v>671</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>588</v>
+        <v>672</v>
       </c>
       <c r="O99" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -8648,35 +9271,39 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>587</v>
+        <v>671</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>58446</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>166271</v>
+      </c>
+      <c r="C100" t="s">
+        <v>673</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>589</v>
+        <v>674</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>590</v>
+        <v>675</v>
       </c>
       <c r="J100" t="s">
-        <v>591</v>
+        <v>676</v>
       </c>
       <c r="K100" t="s"/>
       <c r="L100" t="s"/>
@@ -8684,10 +9311,10 @@
         <v>4</v>
       </c>
       <c r="N100" t="s">
-        <v>588</v>
+        <v>672</v>
       </c>
       <c r="O100" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -8708,51 +9335,52 @@
       <c r="V100" t="n">
         <v>0</v>
       </c>
-      <c r="W100" t="s"/>
-      <c r="X100" t="s"/>
-      <c r="Y100" t="s"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>58446</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>371</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>592</v>
+        <v>677</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>593</v>
+        <v>678</v>
       </c>
       <c r="J101" t="s">
-        <v>594</v>
+        <v>679</v>
       </c>
       <c r="K101" t="s">
-        <v>595</v>
+        <v>680</v>
       </c>
       <c r="L101" t="s">
-        <v>596</v>
+        <v>681</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>588</v>
+        <v>672</v>
       </c>
       <c r="O101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -8776,50 +9404,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>596</v>
+        <v>681</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>58446</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>50873</v>
+      </c>
+      <c r="C102" t="s">
+        <v>682</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>597</v>
+        <v>683</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>598</v>
+        <v>684</v>
       </c>
       <c r="J102" t="s">
-        <v>599</v>
+        <v>685</v>
       </c>
       <c r="K102" t="s">
-        <v>600</v>
+        <v>686</v>
       </c>
       <c r="L102" t="s">
-        <v>601</v>
+        <v>687</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>602</v>
+        <v>688</v>
       </c>
       <c r="O102" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -8843,50 +9475,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>603</v>
+        <v>689</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>58446</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>166272</v>
+      </c>
+      <c r="C103" t="s">
+        <v>690</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>604</v>
+        <v>691</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>605</v>
+        <v>692</v>
       </c>
       <c r="J103" t="s">
-        <v>606</v>
+        <v>693</v>
       </c>
       <c r="K103" t="s">
-        <v>607</v>
+        <v>694</v>
       </c>
       <c r="L103" t="s">
-        <v>608</v>
+        <v>695</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>609</v>
+        <v>696</v>
       </c>
       <c r="O103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P103" t="n">
         <v>5</v>
@@ -8910,50 +9546,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>608</v>
+        <v>695</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>58446</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>166273</v>
+      </c>
+      <c r="C104" t="s">
+        <v>697</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>610</v>
+        <v>698</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>611</v>
+        <v>699</v>
       </c>
       <c r="J104" t="s">
-        <v>612</v>
+        <v>700</v>
       </c>
       <c r="K104" t="s">
-        <v>613</v>
+        <v>701</v>
       </c>
       <c r="L104" t="s">
-        <v>614</v>
+        <v>702</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>615</v>
+        <v>703</v>
       </c>
       <c r="O104" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -8977,50 +9617,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>614</v>
+        <v>702</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>58446</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>166274</v>
+      </c>
+      <c r="C105" t="s">
+        <v>704</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>616</v>
+        <v>705</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>617</v>
+        <v>706</v>
       </c>
       <c r="J105" t="s">
-        <v>618</v>
+        <v>707</v>
       </c>
       <c r="K105" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L105" t="s">
-        <v>619</v>
+        <v>708</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
       </c>
       <c r="N105" t="s">
-        <v>615</v>
+        <v>703</v>
       </c>
       <c r="O105" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="P105" t="n">
         <v>5</v>
@@ -9044,50 +9688,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>619</v>
+        <v>708</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>58446</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>166275</v>
+      </c>
+      <c r="C106" t="s">
+        <v>709</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>620</v>
+        <v>710</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>621</v>
+        <v>711</v>
       </c>
       <c r="J106" t="s">
-        <v>622</v>
+        <v>712</v>
       </c>
       <c r="K106" t="s">
-        <v>623</v>
+        <v>713</v>
       </c>
       <c r="L106" t="s">
-        <v>624</v>
+        <v>714</v>
       </c>
       <c r="M106" t="n">
         <v>2</v>
       </c>
       <c r="N106" t="s">
-        <v>625</v>
+        <v>715</v>
       </c>
       <c r="O106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P106" t="n">
         <v>1</v>
@@ -9105,56 +9753,60 @@
         <v>0</v>
       </c>
       <c r="W106" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X106" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y106" t="s">
-        <v>626</v>
+        <v>716</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>58446</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>61603</v>
+      </c>
+      <c r="C107" t="s">
+        <v>717</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>627</v>
+        <v>718</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>628</v>
+        <v>719</v>
       </c>
       <c r="J107" t="s">
-        <v>629</v>
+        <v>720</v>
       </c>
       <c r="K107" t="s">
-        <v>630</v>
+        <v>721</v>
       </c>
       <c r="L107" t="s">
-        <v>631</v>
+        <v>722</v>
       </c>
       <c r="M107" t="n">
         <v>4</v>
       </c>
       <c r="N107" t="s">
-        <v>632</v>
+        <v>723</v>
       </c>
       <c r="O107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P107" t="s"/>
       <c r="Q107" t="n">
@@ -9172,56 +9824,60 @@
         <v>0</v>
       </c>
       <c r="W107" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X107" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y107" t="s">
-        <v>633</v>
+        <v>724</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>58446</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>70675</v>
+      </c>
+      <c r="C108" t="s">
+        <v>725</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>634</v>
+        <v>726</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>635</v>
+        <v>727</v>
       </c>
       <c r="J108" t="s">
-        <v>636</v>
+        <v>728</v>
       </c>
       <c r="K108" t="s">
-        <v>637</v>
+        <v>729</v>
       </c>
       <c r="L108" t="s">
-        <v>638</v>
+        <v>730</v>
       </c>
       <c r="M108" t="n">
         <v>4</v>
       </c>
       <c r="N108" t="s">
-        <v>639</v>
+        <v>731</v>
       </c>
       <c r="O108" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P108" t="n">
         <v>4</v>
@@ -9239,13 +9895,13 @@
         <v>0</v>
       </c>
       <c r="W108" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X108" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y108" t="s">
-        <v>640</v>
+        <v>732</v>
       </c>
     </row>
   </sheetData>
